--- a/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
@@ -779,12 +779,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,119 +908,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1034,713 +1067,95 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="273">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="208">
     <dxf>
       <font>
         <b/>
@@ -4135,11 +3550,11 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="29"/>
       <c r="I13" s="19"/>
       <c r="J13" s="23"/>
@@ -4148,9 +3563,9 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="29"/>
       <c r="I14" s="19"/>
       <c r="J14" s="23"/>
@@ -4170,11 +3585,11 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="29"/>
       <c r="I16" s="19"/>
       <c r="J16" s="23"/>
@@ -4183,9 +3598,9 @@
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="29"/>
       <c r="I17" s="19"/>
       <c r="J17" s="23"/>
@@ -4232,7 +3647,7 @@
       <c r="C21" s="19"/>
       <c r="D21" s="28"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="57" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="33"/>
@@ -4245,7 +3660,7 @@
       <c r="C22" s="19"/>
       <c r="D22" s="28"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="59" t="s">
+      <c r="F22" s="57" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="33"/>
@@ -4258,7 +3673,7 @@
       <c r="C23" s="19"/>
       <c r="D23" s="28"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="59" t="s">
+      <c r="F23" s="57" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="33"/>
@@ -4444,7 +3859,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11:B13"/>
+      <selection pane="bottomRight" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4470,33 +3885,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:242" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="149"/>
       <c r="E1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="110" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="38"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="36"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -4724,27 +4139,27 @@
       <c r="IH1" s="1"/>
     </row>
     <row r="2" spans="1:242" s="8" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="153"/>
       <c r="E2" s="98"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="38"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="36"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -4972,27 +4387,27 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="98"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="38"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="36"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -5220,23 +4635,23 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="149"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="38"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="36"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -5465,22 +4880,22 @@
     </row>
     <row r="5" spans="1:242" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="42"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -5708,33 +5123,33 @@
       <c r="IH5" s="1"/>
     </row>
     <row r="6" spans="1:242" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="40"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -5962,53 +5377,53 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52" t="s">
+      <c r="L7" s="49"/>
+      <c r="M7" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="52" t="s">
+      <c r="N7" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="52" t="s">
+      <c r="O7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="38"/>
+      <c r="Q7" s="36"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -6236,47 +5651,47 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="158" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52" t="s">
+      <c r="L8" s="49"/>
+      <c r="M8" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="52" t="s">
+      <c r="O8" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="38"/>
+      <c r="Q8" s="36"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -6504,23 +5919,23 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="38"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="36"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -6748,23 +6163,23 @@
       <c r="IH9" s="13"/>
     </row>
     <row r="10" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="56"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
@@ -6992,33 +6407,33 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="38"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="36"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
@@ -7246,27 +6661,27 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="60" t="s">
+      <c r="A12" s="95"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="38"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="36"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -7494,27 +6909,27 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="48" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="38"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="36"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
@@ -7742,23 +7157,23 @@
       <c r="IH13" s="13"/>
     </row>
     <row r="14" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="56"/>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
@@ -7986,33 +7401,33 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="159" t="s">
+      <c r="B15" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="158" t="s">
+      <c r="D15" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="158" t="s">
+      <c r="E15" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="36"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
@@ -8240,27 +7655,27 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="158" t="s">
+      <c r="A16" s="95"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="158" t="s">
+      <c r="E16" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
@@ -8488,23 +7903,23 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="38"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="36"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
@@ -8732,23 +8147,23 @@
       <c r="IH17" s="13"/>
     </row>
     <row r="18" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="56"/>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
@@ -8976,25 +8391,25 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="38"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="36"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
@@ -9222,23 +8637,23 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="38"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="36"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
@@ -9466,23 +8881,23 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="38"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="36"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
@@ -9710,23 +9125,23 @@
       <c r="IH21" s="13"/>
     </row>
     <row r="22" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="58"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
@@ -9954,550 +9369,572 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="38"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="38"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="38"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="38"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A28" s="84"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="38"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A29" s="84"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="38"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="38"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A32" s="84"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="38"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="38"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="58"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="38"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="38"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="38"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="84"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="52"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="50"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="84"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
     </row>
     <row r="50" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="84"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="84"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="52"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -10514,43 +9951,21 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P6">
     <cfRule type="cellIs" priority="443" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="444" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10558,7 +9973,7 @@
     <cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="246" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10566,7 +9981,7 @@
     <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="248" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10574,7 +9989,7 @@
     <cfRule type="cellIs" priority="249" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="250" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10582,7 +9997,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10590,7 +10005,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10598,7 +10013,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10606,7 +10021,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10614,7 +10029,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10622,7 +10037,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10630,7 +10045,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10638,7 +10053,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10646,7 +10061,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10654,7 +10069,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10662,7 +10077,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10670,7 +10085,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10678,7 +10093,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10686,7 +10101,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10694,7 +10109,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10702,7 +10117,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10710,7 +10125,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10718,7 +10133,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10726,7 +10141,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10734,7 +10149,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10742,7 +10157,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10750,7 +10165,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10758,7 +10173,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10766,7 +10181,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10774,7 +10189,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10782,7 +10197,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10790,7 +10205,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10798,7 +10213,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10806,7 +10221,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10814,7 +10229,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10822,7 +10237,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10830,7 +10245,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10838,7 +10253,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10846,7 +10261,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10854,7 +10269,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10862,7 +10277,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10870,7 +10285,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10878,7 +10293,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10886,7 +10301,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10894,7 +10309,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10902,7 +10317,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10910,7 +10325,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10918,7 +10333,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10926,7 +10341,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10934,7 +10349,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10942,7 +10357,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10950,7 +10365,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10958,7 +10373,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10966,7 +10381,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10974,7 +10389,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10982,7 +10397,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10990,7 +10405,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10998,7 +10413,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11006,7 +10421,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11014,7 +10429,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11022,7 +10437,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11030,7 +10445,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11038,7 +10453,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11046,7 +10461,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11054,7 +10469,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11062,7 +10477,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11070,7 +10485,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11078,7 +10493,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11086,7 +10501,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11094,7 +10509,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11102,7 +10517,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11110,7 +10525,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11118,7 +10533,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11126,7 +10541,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11134,7 +10549,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11142,7 +10557,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11150,7 +10565,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11158,7 +10573,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11166,7 +10581,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11174,7 +10589,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11182,7 +10597,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11190,7 +10605,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11198,7 +10613,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11206,7 +10621,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11214,7 +10629,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11222,7 +10637,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11230,7 +10645,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11238,7 +10653,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11246,7 +10661,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11254,7 +10669,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11262,7 +10677,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11270,7 +10685,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11278,7 +10693,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11286,7 +10701,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11294,7 +10709,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11302,7 +10717,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11310,7 +10725,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11318,7 +10733,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11326,7 +10741,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11334,7 +10749,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11342,7 +10757,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11350,7 +10765,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11358,7 +10773,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11366,7 +10781,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11374,7 +10789,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11382,7 +10797,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11390,7 +10805,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11418,1013 +10833,1053 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="147" t="s">
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="149" t="s">
+      <c r="F1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="152" t="s">
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="154"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="123"/>
     </row>
     <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="126"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="120"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
     </row>
     <row r="10" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="120"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
     </row>
     <row r="13" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
     </row>
     <row r="14" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="120"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
     </row>
     <row r="17" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
     </row>
     <row r="18" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="120"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
     </row>
     <row r="21" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
     </row>
     <row r="22" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="120"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
     </row>
     <row r="25" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="120"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
     </row>
     <row r="26" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="120"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="120"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
     </row>
     <row r="30" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="119" t="s">
+      <c r="A31" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="120"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
+      <c r="A32" s="131"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
     </row>
     <row r="33" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
+      <c r="A33" s="131"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
     </row>
     <row r="34" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="119" t="s">
+      <c r="A35" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="120"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
+      <c r="A36" s="131"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="120"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="120"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
     </row>
     <row r="41" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="120"/>
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
     </row>
     <row r="42" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="119" t="s">
+      <c r="A43" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="120"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
+      <c r="A44" s="131"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="120"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="119" t="s">
+      <c r="A47" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="120"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
     </row>
     <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="120"/>
-      <c r="B49" s="121"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
     </row>
     <row r="50" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="119" t="s">
+      <c r="A51" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="121"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="120"/>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
+      <c r="A52" s="131"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="120"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -12439,52 +11894,12 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12492,7 +11907,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12500,7 +11915,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12508,7 +11923,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12516,7 +11931,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12524,7 +11939,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12532,7 +11947,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12540,7 +11955,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12548,7 +11963,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12556,7 +11971,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12564,7 +11979,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12572,7 +11987,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12580,7 +11995,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12588,7 +12003,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12596,7 +12011,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12604,7 +12019,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12612,7 +12027,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12620,7 +12035,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12628,7 +12043,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12636,7 +12051,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12644,7 +12059,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12652,7 +12067,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12660,7 +12075,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12668,7 +12083,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12676,7 +12091,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12684,7 +12099,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12692,7 +12107,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12700,7 +12115,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12708,7 +12123,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12716,7 +12131,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12724,7 +12139,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12732,7 +12147,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12740,7 +12155,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12748,7 +12163,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12756,7 +12171,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12764,7 +12179,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12772,7 +12187,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12780,7 +12195,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12788,7 +12203,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12796,7 +12211,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12804,7 +12219,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12812,7 +12227,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12820,7 +12235,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12828,7 +12243,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12836,7 +12251,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12844,7 +12259,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12852,7 +12267,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12860,7 +12275,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12868,7 +12283,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12876,7 +12291,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12884,7 +12299,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12892,7 +12307,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12900,7 +12315,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12908,7 +12323,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12916,7 +12331,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12924,7 +12339,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12932,7 +12347,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12940,7 +12355,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12948,7 +12363,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12956,7 +12371,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12964,7 +12379,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12972,7 +12387,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12980,7 +12395,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12988,7 +12403,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12996,7 +12411,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13004,7 +12419,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13012,7 +12427,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13020,7 +12435,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13028,7 +12443,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13036,7 +12451,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13044,7 +12459,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13052,7 +12467,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13060,7 +12475,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13068,7 +12483,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13076,7 +12491,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13084,7 +12499,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13092,7 +12507,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13100,7 +12515,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13108,7 +12523,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13116,7 +12531,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13124,7 +12539,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13132,7 +12547,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13140,7 +12555,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13148,7 +12563,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13156,7 +12571,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13164,7 +12579,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13172,7 +12587,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13180,7 +12595,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13188,7 +12603,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13196,7 +12611,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13204,7 +12619,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13212,7 +12627,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13220,7 +12635,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13228,7 +12643,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13236,7 +12651,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13244,7 +12659,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13252,7 +12667,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13260,7 +12675,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13268,7 +12683,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13276,7 +12691,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13284,7 +12699,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13292,7 +12707,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="601" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="150">
   <si>
     <t>CAMPO</t>
   </si>
@@ -227,6 +227,255 @@
   </si>
   <si>
     <t>O sistema vai retornar ao usuário que ele enviou a mensagem de comprovante com sucesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inicialização do sistema</t>
+  </si>
+  <si>
+    <t>Java 8, Atualização 45 instalado no PC</t>
+  </si>
+  <si>
+    <t>Clicar no arquivo .jar</t>
+  </si>
+  <si>
+    <t>Execução do sistema e abertura da janela principal</t>
+  </si>
+  <si>
+    <t>Click do mouse</t>
+  </si>
+  <si>
+    <t>Exibição da janela do sistema</t>
+  </si>
+  <si>
+    <t>Testar tela de Compra de Passagem</t>
+  </si>
+  <si>
+    <t>Clicar no botão Comprar Passagem e efetuar o processo de cadastros nos  capos e combos sugeridos.</t>
+  </si>
+  <si>
+    <t>Cadastrar o passageiro  e efetua a compra da passagem</t>
+  </si>
+  <si>
+    <t>Click em OK</t>
+  </si>
+  <si>
+    <t>Cadastro efetuado com sucesso</t>
+  </si>
+  <si>
+    <t>Numero do cadastro</t>
+  </si>
+  <si>
+    <t>Testar Validação de campos da tela de compra de passagem</t>
+  </si>
+  <si>
+    <t>Campo em branco</t>
+  </si>
+  <si>
+    <t>Mensagem de aviso caso haja algum campo obrigatório em branco</t>
+  </si>
+  <si>
+    <t>Todos os campos são brigatórios</t>
+  </si>
+  <si>
+    <t>Cadastrar sem escolher dia</t>
+  </si>
+  <si>
+    <t>Mensagen de erro</t>
+  </si>
+  <si>
+    <t>erro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digitar números aleatórios no campo  CPF </t>
+  </si>
+  <si>
+    <t>Mensagem de CPF Inválido</t>
+  </si>
+  <si>
+    <t>caracteres numéricos</t>
+  </si>
+  <si>
+    <t>Digitar CPF incompleto</t>
+  </si>
+  <si>
+    <t>Mensagem de erro</t>
+  </si>
+  <si>
+    <t>Digitar caracteres alfanuméricos no campo nome</t>
+  </si>
+  <si>
+    <t>não permitir uso de caracteres numéricos</t>
+  </si>
+  <si>
+    <t>tor4to</t>
+  </si>
+  <si>
+    <t>Testar repetição de registros na tela de compra de passagem</t>
+  </si>
+  <si>
+    <t>Comprar mais de uma passagem com o mesmo cpf</t>
+  </si>
+  <si>
+    <t>Mensagem de alerta de cadastro já efetuado</t>
+  </si>
+  <si>
+    <t>cpf</t>
+  </si>
+  <si>
+    <t>Erro não tratado, tela trava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testar tela de dados pessoais após clicar no botão checkin de checkin </t>
+  </si>
+  <si>
+    <t>Verificar integridade do radio buton masculino e feminino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Não deixar esscolher as duas opções</t>
+  </si>
+  <si>
+    <t>clicar nas duas opções</t>
+  </si>
+  <si>
+    <t>as duas opções ficam selecionadas</t>
+  </si>
+  <si>
+    <t>marcar feminino, desmarcar e depois marcar masculino</t>
+  </si>
+  <si>
+    <t>a opção gestante deverar sumir do form após desmarcar feminnino</t>
+  </si>
+  <si>
+    <t>desmarcar feminino e marcar masculino</t>
+  </si>
+  <si>
+    <t>A opção gestante  permanece mesmo deixando marcado masculino</t>
+  </si>
+  <si>
+    <t>clicar em avançar</t>
+  </si>
+  <si>
+    <t>mudar de tela</t>
+  </si>
+  <si>
+    <t>click no botão avançar</t>
+  </si>
+  <si>
+    <t>botão não responde ao comando</t>
+  </si>
+  <si>
+    <t>O aplicativo deverá perguntar se deseja cadastrar um novo passageiro ou já tenho um cadastro através de uma caixa de mensagem ou de um aviso no formulário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicando em novo usuário </t>
+  </si>
+  <si>
+    <t>Ordem TAB</t>
+  </si>
+  <si>
+    <t>Clicar no botão Gravar</t>
+  </si>
+  <si>
+    <t>A aplicação validará dados obrigatórios assegurando que deverão estar devidamente preenchidos e gravará os dados no banco</t>
+  </si>
+  <si>
+    <t>CT013</t>
+  </si>
+  <si>
+    <t>Editando registro</t>
+  </si>
+  <si>
+    <t>Alterar campo</t>
+  </si>
+  <si>
+    <t>Que apareça uma mensagem se tem certeza que deseja realmente fazer alterações e validar os dados e gravar alterações</t>
+  </si>
+  <si>
+    <t>CT014</t>
+  </si>
+  <si>
+    <t>Escolher dentre uma lista  o voos</t>
+  </si>
+  <si>
+    <t>Gravar o número do voo</t>
+  </si>
+  <si>
+    <t>Escolher assento</t>
+  </si>
+  <si>
+    <t>Na tela de escolha do voo deverá conter o assento escolhido</t>
+  </si>
+  <si>
+    <t>O usuário consulta o voo ao qual escolheu</t>
+  </si>
+  <si>
+    <t>Deverá aparecer a opção escolhida anteriormente</t>
+  </si>
+  <si>
+    <t>Clicar  no botão alterar</t>
+  </si>
+  <si>
+    <t>O formulário deverá liberar a alteração num dado período antes da decolagem</t>
+  </si>
+  <si>
+    <t>Escolher o motivo</t>
+  </si>
+  <si>
+    <t>Deverá aparecer um combo com os motivos previamente cadastrados e uma opção OUTROS para detalhar algum motivo qur não estiver na lista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicar no item cancelamento no menu voos </t>
+  </si>
+  <si>
+    <t>O cancelamento do voo, dependendo do tempo antes do embarque</t>
+  </si>
+  <si>
+    <t>Clicar no item desfazer cancelamento no menu voo</t>
+  </si>
+  <si>
+    <t>Desfaz o cancelamento se nenhum novo passageiro apossar de sua vaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CT017</t>
+  </si>
+  <si>
+    <t>Em cada tela que fizer alteração no voo deverá conter um botão IMPRIMIR</t>
+  </si>
+  <si>
+    <t>Ao clicar neste botão deverá ser impresso um comprovante da situação do voo depois de alterado</t>
+  </si>
+  <si>
+    <t>Cadastrando um novo passageiro (MELHORIA)</t>
+  </si>
+  <si>
+    <t>Modificar o aplicativo para cadastrar passageiro</t>
+  </si>
+  <si>
+    <t>Ferramenta de gerenciamento de BD e Aplicação conectada ao SGBD (Melhoria)</t>
+  </si>
+  <si>
+    <t>Todos os campos, de todas as telas de cadastro, ao serem preenchidos deverão ser navegáveis através da tabulação em ordem</t>
+  </si>
+  <si>
+    <t>A aplicação deverá abrir na tela de cadastro correspondente impedindo que uma  a tela fique em segundo plano</t>
+  </si>
+  <si>
+    <t>Gravando registro(MELHORIA)</t>
+  </si>
+  <si>
+    <t>Informar Voo (Melhoria)</t>
+  </si>
+  <si>
+    <t>Alterar Voo escolhido(Melhoria)</t>
+  </si>
+  <si>
+    <t>Cancelamento do voo(Melhoria)</t>
+  </si>
+  <si>
+    <t>Impressão de comprovantes(Melhoria)</t>
   </si>
 </sst>
 </file>
@@ -306,7 +555,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +614,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -720,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -884,9 +1139,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -896,9 +1148,6 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -911,12 +1160,48 @@
     <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -935,6 +1220,51 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,44 +1283,38 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -1013,12 +1337,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -1052,110 +1370,1205 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="208">
+  <dxfs count="334">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3855,7 +5268,7 @@
   <sheetPr codeName="Plan3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
@@ -3885,32 +5298,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:242" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
       <c r="E1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="100" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="102"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="112"/>
       <c r="Q1" s="36"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -4139,26 +5552,26 @@
       <c r="IH1" s="1"/>
     </row>
     <row r="2" spans="1:242" s="8" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="98"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -4387,26 +5800,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="98"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -4635,22 +6048,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="158"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -5377,13 +6790,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="89" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -5651,10 +7064,10 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="95"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="79" t="s">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="77" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="46" t="s">
@@ -5919,9 +7332,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="48"/>
@@ -6407,13 +7820,13 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="89" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="58" t="s">
@@ -6661,9 +8074,9 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="58" t="s">
         <v>58</v>
       </c>
@@ -6909,9 +8322,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="46" t="s">
         <v>60</v>
       </c>
@@ -7401,19 +8814,19 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="77" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="47"/>
@@ -7655,13 +9068,13 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="95"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="79" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="77" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="47"/>
@@ -7903,9 +9316,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="48"/>
@@ -8391,11 +9804,11 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
@@ -8637,9 +10050,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
@@ -8881,9 +10294,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="48"/>
@@ -9369,11 +10782,11 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
@@ -9390,9 +10803,9 @@
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A24" s="95"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="47"/>
@@ -9409,9 +10822,9 @@
       <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="48"/>
@@ -9447,11 +10860,11 @@
       <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
@@ -9468,9 +10881,9 @@
       <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A28" s="95"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
@@ -9487,9 +10900,9 @@
       <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A29" s="95"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="48"/>
@@ -9507,11 +10920,11 @@
     </row>
     <row r="30" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A31" s="94" t="s">
+      <c r="A31" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
@@ -9528,9 +10941,9 @@
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A32" s="95"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
@@ -9547,9 +10960,9 @@
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="48"/>
@@ -9585,11 +10998,11 @@
       <c r="Q34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
@@ -9606,9 +11019,9 @@
       <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="95"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
@@ -9625,9 +11038,9 @@
       <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="95"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
       <c r="F37" s="48"/>
@@ -9644,11 +11057,11 @@
       <c r="Q37" s="36"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
@@ -9664,9 +11077,9 @@
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="95"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
       <c r="F40" s="47"/>
@@ -9682,9 +11095,9 @@
       <c r="P40" s="51"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
@@ -9718,11 +11131,11 @@
       <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="84"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="47"/>
@@ -9738,9 +11151,9 @@
       <c r="P43" s="50"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="95"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
       <c r="D44" s="46"/>
       <c r="E44" s="46"/>
       <c r="F44" s="47"/>
@@ -9756,9 +11169,9 @@
       <c r="P44" s="51"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="95"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
       <c r="F45" s="48"/>
@@ -9774,11 +11187,11 @@
       <c r="P45" s="50"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
       <c r="D47" s="46"/>
       <c r="E47" s="46"/>
       <c r="F47" s="47"/>
@@ -9794,9 +11207,9 @@
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="95"/>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="84"/>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
       <c r="F48" s="47"/>
@@ -9812,9 +11225,9 @@
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
       <c r="F49" s="48"/>
@@ -9848,11 +11261,11 @@
       <c r="P50" s="55"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
       <c r="D51" s="46"/>
       <c r="E51" s="46"/>
       <c r="F51" s="47"/>
@@ -9868,9 +11281,9 @@
       <c r="P51" s="50"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="95"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="84"/>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
       <c r="F52" s="47"/>
@@ -9886,9 +11299,9 @@
       <c r="P52" s="51"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="95"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
       <c r="F53" s="48"/>
@@ -9905,36 +11318,14 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -9951,21 +11342,43 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P6">
     <cfRule type="cellIs" priority="443" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="444" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9973,7 +11386,7 @@
     <cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="246" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9981,7 +11394,7 @@
     <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="248" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9989,7 +11402,7 @@
     <cfRule type="cellIs" priority="249" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="250" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9997,7 +11410,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10005,7 +11418,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10013,7 +11426,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10021,7 +11434,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10029,7 +11442,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10037,7 +11450,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10045,7 +11458,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10053,7 +11466,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10061,7 +11474,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10069,7 +11482,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10077,7 +11490,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10085,7 +11498,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10093,7 +11506,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10101,7 +11514,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10109,7 +11522,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10117,7 +11530,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10125,7 +11538,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10133,7 +11546,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10141,7 +11554,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10149,7 +11562,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10157,7 +11570,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10165,7 +11578,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10173,7 +11586,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10181,7 +11594,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10189,7 +11602,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10197,7 +11610,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10205,7 +11618,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10213,7 +11626,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10221,7 +11634,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10229,7 +11642,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10237,7 +11650,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10245,7 +11658,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10253,7 +11666,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10261,7 +11674,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10269,7 +11682,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10277,7 +11690,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10285,7 +11698,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10293,7 +11706,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10301,7 +11714,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10309,7 +11722,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10317,7 +11730,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10325,7 +11738,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10333,7 +11746,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10341,7 +11754,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10349,7 +11762,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10357,7 +11770,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10365,7 +11778,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10373,7 +11786,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10381,7 +11794,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10389,7 +11802,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10397,7 +11810,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10405,7 +11818,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10413,7 +11826,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10421,7 +11834,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10429,7 +11842,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10437,7 +11850,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10445,7 +11858,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10453,7 +11866,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10461,7 +11874,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10469,7 +11882,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10477,7 +11890,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10485,7 +11898,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10493,7 +11906,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10501,7 +11914,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10509,7 +11922,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10517,7 +11930,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10525,7 +11938,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10533,7 +11946,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10541,7 +11954,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10549,7 +11962,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10557,7 +11970,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10565,7 +11978,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10573,7 +11986,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10581,7 +11994,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10589,7 +12002,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10597,7 +12010,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10605,7 +12018,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10613,7 +12026,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10621,7 +12034,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10629,7 +12042,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10637,7 +12050,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10645,7 +12058,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10653,7 +12066,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10661,7 +12074,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10669,7 +12082,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10677,7 +12090,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10685,7 +12098,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10693,7 +12106,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10701,7 +12114,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10709,7 +12122,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10717,7 +12130,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10725,7 +12138,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10733,7 +12146,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10741,7 +12154,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10749,7 +12162,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10757,7 +12170,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10765,7 +12178,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10773,7 +12186,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10781,7 +12194,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10789,7 +12202,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10797,7 +12210,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10805,7 +12218,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10824,105 +12237,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="116" t="s">
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="121" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="123"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="144"/>
     </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="134" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="135"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="123"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
@@ -10940,7 +12360,7 @@
       <c r="O5" s="64"/>
       <c r="P5" s="64"/>
     </row>
-    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
         <v>7</v>
       </c>
@@ -10968,918 +12388,1016 @@
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
+    <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="149" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="131"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="149"/>
     </row>
-    <row r="9" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
+    <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="151"/>
     </row>
-    <row r="10" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
+    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="154"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="130" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="149" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="131"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="151"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
+    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="151"/>
     </row>
-    <row r="14" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
+    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="154"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
+    <row r="15" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="148"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="161" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="149" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="131"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
+    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="82"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="148"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="149" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="131"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
+    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="148" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="151" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
+    <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="83"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="148" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="151"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="130" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
+    <row r="19" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="151" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="131"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
+    <row r="20" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="154"/>
     </row>
-    <row r="21" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
+    <row r="21" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="148" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="149" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
+    <row r="22" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="151"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="130" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
+    <row r="23" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="83"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="149"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="131"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
+    <row r="24" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="154"/>
     </row>
-    <row r="25" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
+    <row r="25" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="163" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="148" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="149" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
+    <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="83"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="164" t="s">
+        <v>107</v>
+      </c>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="166" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="130" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
+    <row r="27" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="83"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="151"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="131"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
+    <row r="28" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="74"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="131"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
+    <row r="29" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
     </row>
-    <row r="30" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
+    <row r="30" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="130" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
+    <row r="31" spans="1:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="131"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
+    <row r="32" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
     </row>
-    <row r="33" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="131"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
+    <row r="33" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
     </row>
-    <row r="34" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
+    <row r="34" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="83"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="143"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
+    <row r="35" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="83"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="131"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
+    <row r="36" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="131"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
+    <row r="37" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
+    <row r="39" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="131"/>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
+    <row r="40" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
     </row>
-    <row r="41" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="131"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
+    <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
     </row>
-    <row r="42" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
+    <row r="42" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="83"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
+    <row r="43" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="83"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="131"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
+    <row r="44" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="131"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
+    <row r="45" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="167" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
+    <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="83"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
+    <row r="47" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="83"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="131"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
+    <row r="48" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="131"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="74"/>
-      <c r="P49" s="74"/>
+    <row r="49" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="167" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="50" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
+    <row r="50" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="83"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
-      <c r="P51" s="74"/>
+    <row r="51" spans="1:5" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="83"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="46"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="131"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="74"/>
-      <c r="P52" s="74"/>
+    <row r="52" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="52"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="131"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="74"/>
+    <row r="53" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="167" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="83"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="83"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -11894,728 +13412,599 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7:F9 G6:K6 M6:P9">
-    <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="204" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:K8 G7:G8 I9:J9">
-    <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="200" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="202" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:P13">
-    <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="196" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:P12">
-    <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="198" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15 H17">
-    <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="192" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:K15 G15 M17:P17 G17 K16 I17:J17">
-    <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="190" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 M15:P16">
-    <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="194" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="188" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 G19 M21:P21 K20">
+  <conditionalFormatting sqref="G6:K6 M6:P6">
+    <cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="288" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:K29 G29 M31:P31 K30">
+    <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="184" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="182" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="184" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19 M19:P20">
-    <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="182" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29 M29:P30">
+    <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="180" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="172" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="170" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="166" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="164" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="162" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31 I31:J31">
+    <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="160" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:J30 G30">
+    <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="158" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:K33 G33 M35:P35 K34">
+    <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="148" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="146" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33 M33:P34">
+    <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="144" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="136" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="134" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="130" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="128" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="126" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35 I35:J35">
+    <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="124" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:J34 G34">
+    <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="122" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37 H39">
+    <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="120" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:K37 G37 M39:P39 G39 K38 I39:J39">
+    <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="118" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37 M37:P38">
+    <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="116" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="114" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:K41 G41 M43:P43 K42">
+    <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="112" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="110" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41 M41:P42">
+    <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="108" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="106" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:J38 G38">
+    <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="104" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="102" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="100" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="98" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="96" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="94" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="92" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="90" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43 I43:J43">
+    <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="88" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:J42 G42">
+    <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="86" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:M16">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="2" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7 M7:Q7 M9:Q9 F9">
+    <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="84" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:K7 G7 I9:J9">
+    <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="80" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7 H9">
+    <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="82" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:Q13">
+    <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="76" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:Q12">
+    <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="78" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H16 H19">
+    <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="72" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:K16 G15:G16 M19:Q19 G19 K17:K18 I19:J19">
+    <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="70" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F16 M17:Q18 N15:Q16">
+    <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="74" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:K21 G21 M23:Q23 K22">
+    <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="62" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="64" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 M21:Q22">
+    <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F13">
-    <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="176" stopIfTrue="1">
+    <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="170" stopIfTrue="1">
+    <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H13">
-    <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="174" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="166" stopIfTrue="1">
+    <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="54" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F18">
+    <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="178" stopIfTrue="1">
+    <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="180" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16:J16 G16">
-    <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="162" stopIfTrue="1">
+    <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="60" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:J18 G17:G18">
+    <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="168" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="160" stopIfTrue="1">
+    <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="48" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:K12 G11:G12 I13:J13">
-    <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="172" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="152" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="158" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="164" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="156" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="148" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="146" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21 I21:J21">
-    <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="150" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:J20 G20">
-    <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="154" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H25">
-    <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="144" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:K23 G23 M25:P25 G25 K24 I25:J25">
-    <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="142" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 M23:P24">
-    <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="140" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="138" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:K27 G27 M29:P29 K28">
-    <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="136" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="134" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 M27:P28">
-    <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="132" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="130" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:J24 G24">
-    <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="128" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="126" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="124" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="122" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="120" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="118" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="116" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="114" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29 I29:J29">
-    <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="112" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28 G28">
-    <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="110" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31 H33">
-    <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="108" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:K31 G31 M33:P33 G33 K32 I33:J33">
-    <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="106" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31 M31:P32">
-    <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="104" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="102" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35:K35 G35 M37:P37 K36">
-    <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="100" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="98" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 M35:P36">
-    <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="96" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="94" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:J32 G32">
-    <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="92" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="90" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="88" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="86" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="84" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="82" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="80" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="78" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37 I37:J37">
-    <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="76" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:J36 G36">
-    <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="74" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39 H41">
-    <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="72" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:K39 G39 M41:P41 G41 K40 I41:J41">
-    <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="70" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39 M39:P40">
-    <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="66" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:K43 G43 M45:P45 K44">
-    <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="64" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="62" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43 M43:P44">
-    <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="60" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
-    <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="58" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:J40 G40">
-    <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="56" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="54" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="52" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="50" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="48" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="46" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+    <cfRule type="expression" dxfId="20" priority="52" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="32" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="44" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="42" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45 I45:J45">
-    <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="40" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:J44 G44">
-    <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47 H49">
+    <cfRule type="expression" dxfId="17" priority="44" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="36" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47:K47 G47 M49:P49 G49 K48 I49:J49">
+    <cfRule type="expression" dxfId="16" priority="36" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="28" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 I23:J23">
+    <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="30" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:J22 G22">
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47 M47:P48">
-    <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="32" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:K51 G51 M53:P53 K52">
-    <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="28" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51 M51:P52">
+    <cfRule type="expression" dxfId="12" priority="34" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25 H27">
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -12623,7 +14012,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="I25:K25 G25 M27:Q27 G27 K26 I27:J27">
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -12631,7 +14020,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:J48 G48">
+  <conditionalFormatting sqref="F25 M25:Q25 M26">
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -12639,7 +14028,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="F27">
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -12647,7 +14036,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
+  <conditionalFormatting sqref="F26">
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -12655,7 +14044,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
+  <conditionalFormatting sqref="I26:J26 G26">
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -12663,7 +14052,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="K27">
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -12671,7 +14060,7 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
+  <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
@@ -12679,35 +14068,27 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+  <conditionalFormatting sqref="I8:K8 G8">
+    <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 M8:Q8">
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
+    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+      <formula>#REF!="S"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53 I53:J53">
-    <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>#REF!="S"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:J52 G52">
-    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
   <si>
     <t>CAMPO</t>
   </si>
@@ -1166,122 +1166,233 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -1310,1454 +1421,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="334">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="187">
     <dxf>
       <font>
         <b/>
@@ -4963,11 +3640,11 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="29"/>
       <c r="I13" s="19"/>
       <c r="J13" s="23"/>
@@ -4976,9 +3653,9 @@
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="29"/>
       <c r="I14" s="19"/>
       <c r="J14" s="23"/>
@@ -4998,11 +3675,11 @@
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
       <c r="H16" s="29"/>
       <c r="I16" s="19"/>
       <c r="J16" s="23"/>
@@ -5011,9 +3688,9 @@
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="29"/>
       <c r="I17" s="19"/>
       <c r="J17" s="23"/>
@@ -5268,11 +3945,11 @@
   <sheetPr codeName="Plan3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IH53"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" sqref="A1:D4"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5301,29 +3978,29 @@
       <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="98" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="110" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="112"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="130"/>
       <c r="Q1" s="36"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -5555,23 +4232,23 @@
       <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -5800,26 +4477,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -6048,22 +4725,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -6790,13 +5467,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="112" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -7064,9 +5741,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="77" t="s">
         <v>46</v>
       </c>
@@ -7332,9 +6009,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="48"/>
@@ -7820,13 +6497,13 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="112" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="58" t="s">
@@ -8074,9 +6751,9 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="58" t="s">
         <v>58</v>
       </c>
@@ -8322,9 +6999,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="46" t="s">
         <v>60</v>
       </c>
@@ -8814,13 +7491,13 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="131" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="77" t="s">
@@ -9068,9 +7745,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="83"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="77" t="s">
         <v>46</v>
       </c>
@@ -9316,9 +7993,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="48"/>
@@ -9804,11 +8481,11 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
@@ -10050,9 +8727,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="83"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
@@ -10294,9 +8971,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="48"/>
@@ -10782,11 +9459,11 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
@@ -10803,9 +9480,9 @@
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A24" s="83"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="47"/>
@@ -10822,9 +9499,9 @@
       <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="48"/>
@@ -10860,11 +9537,11 @@
       <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
@@ -10881,9 +9558,9 @@
       <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
@@ -10900,9 +9577,9 @@
       <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="48"/>
@@ -10920,11 +9597,11 @@
     </row>
     <row r="30" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
@@ -10941,9 +9618,9 @@
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A32" s="83"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
@@ -10960,9 +9637,9 @@
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="83"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="48"/>
@@ -10998,11 +9675,11 @@
       <c r="Q34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
@@ -11019,9 +9696,9 @@
       <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
@@ -11038,9 +9715,9 @@
       <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
       <c r="F37" s="48"/>
@@ -11057,11 +9734,11 @@
       <c r="Q37" s="36"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
@@ -11077,9 +9754,9 @@
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
       <c r="F40" s="47"/>
@@ -11095,9 +9772,9 @@
       <c r="P40" s="51"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="83"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
@@ -11131,11 +9808,11 @@
       <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="47"/>
@@ -11151,9 +9828,9 @@
       <c r="P43" s="50"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="46"/>
       <c r="E44" s="46"/>
       <c r="F44" s="47"/>
@@ -11169,9 +9846,9 @@
       <c r="P44" s="51"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
       <c r="F45" s="48"/>
@@ -11187,11 +9864,11 @@
       <c r="P45" s="50"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="46"/>
       <c r="E47" s="46"/>
       <c r="F47" s="47"/>
@@ -11207,9 +9884,9 @@
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
       <c r="F48" s="47"/>
@@ -11225,9 +9902,9 @@
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="83"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
       <c r="F49" s="48"/>
@@ -11261,11 +9938,11 @@
       <c r="P50" s="55"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="46"/>
       <c r="E51" s="46"/>
       <c r="F51" s="47"/>
@@ -11281,9 +9958,9 @@
       <c r="P51" s="50"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="84"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
       <c r="F52" s="47"/>
@@ -11299,9 +9976,9 @@
       <c r="P52" s="51"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="83"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
       <c r="F53" s="48"/>
@@ -11318,14 +9995,36 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -11342,43 +10041,21 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P6">
     <cfRule type="cellIs" priority="443" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="444" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11386,7 +10063,7 @@
     <cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="246" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11394,7 +10071,7 @@
     <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="248" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11402,7 +10079,7 @@
     <cfRule type="cellIs" priority="249" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="250" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11410,7 +10087,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11418,7 +10095,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11426,7 +10103,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11434,7 +10111,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11442,7 +10119,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11450,7 +10127,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11458,7 +10135,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11466,7 +10143,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11474,7 +10151,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11482,7 +10159,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11490,7 +10167,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11498,7 +10175,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11506,7 +10183,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11514,7 +10191,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11522,7 +10199,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11530,7 +10207,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11538,7 +10215,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11546,7 +10223,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11554,7 +10231,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11562,7 +10239,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11570,7 +10247,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11578,7 +10255,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11586,7 +10263,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11594,7 +10271,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11602,7 +10279,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11610,7 +10287,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11618,7 +10295,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11626,7 +10303,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11634,7 +10311,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11642,7 +10319,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11650,7 +10327,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11658,7 +10335,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11666,7 +10343,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11674,7 +10351,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11682,7 +10359,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11690,7 +10367,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11698,7 +10375,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11706,7 +10383,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11714,7 +10391,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11722,7 +10399,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11730,7 +10407,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11738,7 +10415,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11746,7 +10423,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11754,7 +10431,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11762,7 +10439,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11770,7 +10447,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11778,7 +10455,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11786,7 +10463,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11794,7 +10471,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11802,7 +10479,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11810,7 +10487,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11818,7 +10495,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11826,7 +10503,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11834,7 +10511,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11842,7 +10519,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11850,7 +10527,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11858,7 +10535,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11866,7 +10543,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11874,7 +10551,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11882,7 +10559,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11890,7 +10567,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11898,7 +10575,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11906,7 +10583,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11914,7 +10591,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11922,7 +10599,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11930,7 +10607,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11938,7 +10615,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11946,7 +10623,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11954,7 +10631,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11962,7 +10639,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11970,7 +10647,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11978,7 +10655,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11986,7 +10663,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11994,7 +10671,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12002,7 +10679,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12010,7 +10687,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12018,7 +10695,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12026,7 +10703,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12034,7 +10711,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12042,7 +10719,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12050,7 +10727,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12058,7 +10735,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12066,7 +10743,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12074,7 +10751,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12082,7 +10759,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12090,7 +10767,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12098,7 +10775,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12106,7 +10783,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12114,7 +10791,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12122,7 +10799,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12130,7 +10807,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12138,7 +10815,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12146,7 +10823,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12154,7 +10831,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12162,7 +10839,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12170,7 +10847,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12178,7 +10855,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12186,7 +10863,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12194,7 +10871,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12202,7 +10879,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12210,7 +10887,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12218,7 +10895,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12239,8 +10916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12256,91 +10933,91 @@
       <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="137" t="s">
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="142" t="s">
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="144"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="152"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="123"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
@@ -12360,7 +11037,7 @@
       <c r="O5" s="64"/>
       <c r="P5" s="64"/>
     </row>
-    <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
         <v>7</v>
       </c>
@@ -12389,13 +11066,13 @@
       <c r="P6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="112" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -12404,7 +11081,7 @@
       <c r="E7" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="148" t="s">
+      <c r="F7" s="80" t="s">
         <v>71</v>
       </c>
       <c r="G7" s="48"/>
@@ -12419,17 +11096,17 @@
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
-      <c r="Q7" s="149" t="s">
+      <c r="Q7" s="81" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="77"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="148"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
@@ -12440,15 +11117,15 @@
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
-      <c r="Q8" s="149"/>
+      <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="150"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="48"/>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
@@ -12459,7 +11136,7 @@
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
-      <c r="Q9" s="151"/>
+      <c r="Q9" s="83"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
@@ -12467,27 +11144,27 @@
       <c r="C10" s="53"/>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="152"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="55"/>
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
-      <c r="M10" s="153"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
       <c r="P10" s="55"/>
-      <c r="Q10" s="154"/>
+      <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="165" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="77" t="s">
@@ -12496,7 +11173,7 @@
       <c r="E11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="148" t="s">
+      <c r="F11" s="80" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="48" t="s">
@@ -12519,36 +11196,36 @@
       </c>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
-      <c r="Q11" s="149" t="s">
+      <c r="Q11" s="81" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="156"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="166"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
-      <c r="F12" s="148"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="47"/>
       <c r="H12" s="48"/>
       <c r="I12" s="47"/>
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
       <c r="L12" s="49"/>
-      <c r="M12" s="157"/>
+      <c r="M12" s="87"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51"/>
       <c r="P12" s="51"/>
-      <c r="Q12" s="151"/>
+      <c r="Q12" s="83"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="158"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="167"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
-      <c r="F13" s="150"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
@@ -12559,7 +11236,7 @@
       <c r="N13" s="51"/>
       <c r="O13" s="51"/>
       <c r="P13" s="51"/>
-      <c r="Q13" s="151"/>
+      <c r="Q13" s="83"/>
     </row>
     <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
@@ -12567,27 +11244,27 @@
       <c r="C14" s="53"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="152"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="154"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="86"/>
     </row>
     <row r="15" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="165" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="77" t="s">
@@ -12596,59 +11273,59 @@
       <c r="E15" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="148"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
       <c r="K15" s="48"/>
       <c r="L15" s="49"/>
-      <c r="M15" s="161" t="s">
+      <c r="M15" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="149" t="s">
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="81" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="156"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="77" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="148"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="48"/>
       <c r="H16" s="48"/>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="49"/>
-      <c r="M16" s="157"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
       <c r="P16" s="50"/>
-      <c r="Q16" s="149" t="s">
+      <c r="Q16" s="81" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="156"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="166"/>
       <c r="D17" s="77" t="s">
         <v>86</v>
       </c>
       <c r="E17" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="148" t="s">
+      <c r="F17" s="80" t="s">
         <v>88</v>
       </c>
       <c r="G17" s="47"/>
@@ -12661,21 +11338,21 @@
       <c r="N17" s="51"/>
       <c r="O17" s="51"/>
       <c r="P17" s="51"/>
-      <c r="Q17" s="151" t="s">
+      <c r="Q17" s="83" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="156"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="166"/>
       <c r="D18" s="77" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="148" t="s">
+      <c r="F18" s="80" t="s">
         <v>88</v>
       </c>
       <c r="G18" s="47"/>
@@ -12688,19 +11365,21 @@
       <c r="N18" s="51"/>
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
-      <c r="Q18" s="151"/>
+      <c r="Q18" s="83" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="158"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="77" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="150" t="s">
+      <c r="F19" s="82" t="s">
         <v>93</v>
       </c>
       <c r="G19" s="48"/>
@@ -12713,7 +11392,7 @@
       <c r="N19" s="51"/>
       <c r="O19" s="51"/>
       <c r="P19" s="51"/>
-      <c r="Q19" s="151" t="s">
+      <c r="Q19" s="83" t="s">
         <v>45</v>
       </c>
     </row>
@@ -12723,27 +11402,27 @@
       <c r="C20" s="53"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
-      <c r="F20" s="152"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="55"/>
       <c r="H20" s="55"/>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
-      <c r="M20" s="153"/>
+      <c r="M20" s="85"/>
       <c r="N20" s="55"/>
       <c r="O20" s="55"/>
       <c r="P20" s="55"/>
-      <c r="Q20" s="154"/>
+      <c r="Q20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="113" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="46" t="s">
@@ -12752,7 +11431,7 @@
       <c r="E21" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="148" t="s">
+      <c r="F21" s="80" t="s">
         <v>97</v>
       </c>
       <c r="G21" s="48"/>
@@ -12767,17 +11446,17 @@
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
-      <c r="Q21" s="149" t="s">
+      <c r="Q21" s="81" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="148"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="47"/>
       <c r="H22" s="48"/>
       <c r="I22" s="47"/>
@@ -12788,15 +11467,15 @@
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
       <c r="P22" s="51"/>
-      <c r="Q22" s="151"/>
+      <c r="Q22" s="83"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="150"/>
+      <c r="F23" s="82"/>
       <c r="G23" s="48"/>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
@@ -12807,7 +11486,7 @@
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
       <c r="P23" s="51"/>
-      <c r="Q23" s="149"/>
+      <c r="Q23" s="81"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
@@ -12815,36 +11494,36 @@
       <c r="C24" s="53"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="152"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="55"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
-      <c r="M24" s="153"/>
+      <c r="M24" s="85"/>
       <c r="N24" s="55"/>
       <c r="O24" s="55"/>
       <c r="P24" s="55"/>
-      <c r="Q24" s="154"/>
+      <c r="Q24" s="86"/>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="113" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="163" t="s">
+      <c r="E25" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="148" t="s">
+      <c r="F25" s="80" t="s">
         <v>102</v>
       </c>
       <c r="G25" s="48"/>
@@ -12859,21 +11538,21 @@
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
       <c r="P25" s="50"/>
-      <c r="Q25" s="149" t="s">
+      <c r="Q25" s="81" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="83"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="84"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="163" t="s">
+      <c r="E26" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="148" t="s">
+      <c r="F26" s="80" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="47"/>
@@ -12882,27 +11561,27 @@
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="49"/>
-      <c r="M26" s="164" t="s">
+      <c r="M26" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="166" t="s">
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="84"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="77" t="s">
         <v>108</v>
       </c>
       <c r="E27" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="150" t="s">
+      <c r="F27" s="82" t="s">
         <v>110</v>
       </c>
       <c r="G27" s="48"/>
@@ -12917,7 +11596,7 @@
       <c r="N27" s="51"/>
       <c r="O27" s="51"/>
       <c r="P27" s="51"/>
-      <c r="Q27" s="151"/>
+      <c r="Q27" s="83"/>
     </row>
     <row r="28" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74"/>
@@ -12938,13 +11617,13 @@
       <c r="P28" s="75"/>
     </row>
     <row r="29" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="112" t="s">
         <v>142</v>
       </c>
       <c r="D29" s="77" t="s">
@@ -12966,9 +11645,9 @@
       <c r="P29" s="73"/>
     </row>
     <row r="30" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="58" t="s">
         <v>113</v>
       </c>
@@ -12988,9 +11667,9 @@
       <c r="P30" s="73"/>
     </row>
     <row r="31" spans="1:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="58" t="s">
         <v>114</v>
       </c>
@@ -13028,13 +11707,13 @@
       <c r="P32" s="75"/>
     </row>
     <row r="33" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="112" t="s">
         <v>142</v>
       </c>
       <c r="D33" s="77" t="s">
@@ -13056,9 +11735,9 @@
       <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="77"/>
       <c r="E34" s="58"/>
       <c r="F34" s="71"/>
@@ -13074,9 +11753,9 @@
       <c r="P34" s="73"/>
     </row>
     <row r="35" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="84"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="77"/>
       <c r="E35" s="46"/>
       <c r="F35" s="71"/>
@@ -13110,13 +11789,13 @@
       <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="112" t="s">
         <v>142</v>
       </c>
       <c r="D37" s="77" t="s">
@@ -13138,9 +11817,9 @@
       <c r="P37" s="73"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="77"/>
       <c r="E38" s="77"/>
       <c r="F38" s="71"/>
@@ -13156,9 +11835,9 @@
       <c r="P38" s="73"/>
     </row>
     <row r="39" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="83"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="77"/>
       <c r="E39" s="46"/>
       <c r="F39" s="71"/>
@@ -13192,13 +11871,13 @@
       <c r="P40" s="75"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="167" t="s">
+      <c r="B41" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="155" t="s">
+      <c r="C41" s="165" t="s">
         <v>142</v>
       </c>
       <c r="D41" s="58" t="s">
@@ -13220,9 +11899,9 @@
       <c r="P41" s="73"/>
     </row>
     <row r="42" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="156"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="166"/>
       <c r="D42" s="58" t="s">
         <v>124</v>
       </c>
@@ -13242,9 +11921,9 @@
       <c r="P42" s="73"/>
     </row>
     <row r="43" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="158"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="167"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="71"/>
@@ -13267,13 +11946,13 @@
       <c r="E44" s="54"/>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="167" t="s">
+      <c r="B45" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="89" t="s">
+      <c r="C45" s="112" t="s">
         <v>142</v>
       </c>
       <c r="D45" s="58" t="s">
@@ -13284,9 +11963,9 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="84"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="58" t="s">
         <v>128</v>
       </c>
@@ -13295,9 +11974,9 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="58" t="s">
         <v>130</v>
       </c>
@@ -13313,13 +11992,13 @@
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="167" t="s">
+      <c r="B49" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="112" t="s">
         <v>142</v>
       </c>
       <c r="D49" s="58" t="s">
@@ -13330,9 +12009,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="83"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="84"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="58" t="s">
         <v>134</v>
       </c>
@@ -13341,9 +12020,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="83"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="84"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="46" t="s">
         <v>136</v>
       </c>
@@ -13357,13 +12036,13 @@
       <c r="E52" s="54"/>
     </row>
     <row r="53" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="167" t="s">
+      <c r="B53" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="89" t="s">
+      <c r="C53" s="112" t="s">
         <v>142</v>
       </c>
       <c r="D53" s="77" t="s">
@@ -13374,30 +12053,50 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="84"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="83"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -13414,41 +12113,21 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 M6:P6">
     <cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="288" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13456,7 +12135,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13464,7 +12143,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13472,7 +12151,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13480,7 +12159,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13488,7 +12167,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13496,7 +12175,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13504,7 +12183,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13512,7 +12191,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13520,7 +12199,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13528,7 +12207,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13536,7 +12215,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13544,7 +12223,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13552,7 +12231,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13560,7 +12239,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13568,7 +12247,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13576,7 +12255,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13584,7 +12263,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13592,7 +12271,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13600,7 +12279,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13608,7 +12287,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13616,7 +12295,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13624,7 +12303,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13632,7 +12311,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13640,7 +12319,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13648,7 +12327,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13656,7 +12335,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13664,7 +12343,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13672,7 +12351,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13680,7 +12359,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13688,7 +12367,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13696,7 +12375,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13704,7 +12383,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13712,7 +12391,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13720,7 +12399,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13728,7 +12407,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13736,7 +12415,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13744,7 +12423,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13752,7 +12431,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13760,7 +12439,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13768,7 +12447,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13776,7 +12455,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13784,7 +12463,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13792,7 +12471,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13800,7 +12479,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13808,7 +12487,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13816,7 +12495,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13824,7 +12503,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13832,7 +12511,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13840,7 +12519,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13848,7 +12527,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13856,7 +12535,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13864,7 +12543,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13872,7 +12551,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13880,7 +12559,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13888,7 +12567,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13896,7 +12575,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13904,7 +12583,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13912,7 +12591,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13920,7 +12599,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13928,7 +12607,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13936,7 +12615,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13944,7 +12623,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13952,7 +12631,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13960,7 +12639,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13968,7 +12647,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13976,7 +12655,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13984,7 +12663,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13992,7 +12671,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14000,7 +12679,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14008,7 +12687,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14016,7 +12695,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14024,7 +12703,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14032,7 +12711,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14040,7 +12719,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14048,7 +12727,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14056,7 +12735,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14064,7 +12743,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14072,7 +12751,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14080,7 +12759,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14088,7 +12767,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t>Fazer check-in</t>
   </si>
   <si>
-    <t>O usuário deve check-in do voo</t>
-  </si>
-  <si>
     <t xml:space="preserve">O usuário clica na opção fazer check-in </t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>Impressão de comprovantes(Melhoria)</t>
+  </si>
+  <si>
+    <t>O usuário deve fazer o check-in do voo</t>
   </si>
 </sst>
 </file>
@@ -1220,6 +1220,36 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1238,6 +1268,51 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,84 +1331,42 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -1355,12 +1388,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -1402,33 +1429,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3945,11 +3945,11 @@
   <sheetPr codeName="Plan3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3978,29 +3978,29 @@
       <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="116" t="s">
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="128" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="130"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="128"/>
       <c r="Q1" s="36"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -4232,23 +4232,23 @@
       <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -4477,26 +4477,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -4725,22 +4725,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -5467,13 +5467,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="105" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -5741,9 +5741,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="77" t="s">
         <v>46</v>
       </c>
@@ -6009,9 +6009,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="48"/>
@@ -6497,20 +6497,20 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="E11" s="46" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>57</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="48"/>
@@ -6751,14 +6751,14 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>59</v>
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
@@ -6999,14 +6999,14 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>61</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -7491,20 +7491,20 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="D15" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="E15" s="77" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>65</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="48"/>
@@ -7745,14 +7745,14 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="77" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
@@ -7993,9 +7993,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="48"/>
@@ -8481,11 +8481,11 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
@@ -8727,9 +8727,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
@@ -8971,9 +8971,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="48"/>
@@ -9459,11 +9459,11 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
@@ -9480,9 +9480,9 @@
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="47"/>
@@ -9499,9 +9499,9 @@
       <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="48"/>
@@ -9537,11 +9537,11 @@
       <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
@@ -9558,9 +9558,9 @@
       <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
@@ -9577,9 +9577,9 @@
       <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A29" s="111"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="48"/>
@@ -9597,11 +9597,11 @@
     </row>
     <row r="30" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
@@ -9618,9 +9618,9 @@
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A32" s="111"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
@@ -9637,9 +9637,9 @@
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="48"/>
@@ -9675,11 +9675,11 @@
       <c r="Q34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
@@ -9696,9 +9696,9 @@
       <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
@@ -9715,9 +9715,9 @@
       <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
       <c r="F37" s="48"/>
@@ -9734,11 +9734,11 @@
       <c r="Q37" s="36"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
@@ -9754,9 +9754,9 @@
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
       <c r="F40" s="47"/>
@@ -9772,9 +9772,9 @@
       <c r="P40" s="51"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
@@ -9808,11 +9808,11 @@
       <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="47"/>
@@ -9828,9 +9828,9 @@
       <c r="P43" s="50"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="111"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
       <c r="D44" s="46"/>
       <c r="E44" s="46"/>
       <c r="F44" s="47"/>
@@ -9846,9 +9846,9 @@
       <c r="P44" s="51"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="111"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
       <c r="F45" s="48"/>
@@ -9864,11 +9864,11 @@
       <c r="P45" s="50"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="46"/>
       <c r="E47" s="46"/>
       <c r="F47" s="47"/>
@@ -9884,9 +9884,9 @@
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
       <c r="F48" s="47"/>
@@ -9902,9 +9902,9 @@
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="111"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
       <c r="F49" s="48"/>
@@ -9938,11 +9938,11 @@
       <c r="P50" s="55"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="46"/>
       <c r="E51" s="46"/>
       <c r="F51" s="47"/>
@@ -9958,9 +9958,9 @@
       <c r="P51" s="50"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="111"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
       <c r="F52" s="47"/>
@@ -9976,9 +9976,9 @@
       <c r="P52" s="51"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="111"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
       <c r="F53" s="48"/>
@@ -9995,36 +9995,14 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -10041,14 +10019,36 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P6">
@@ -10916,8 +10916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10933,91 +10933,91 @@
       <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="150" t="s">
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="152"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="161"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="160"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
@@ -11066,23 +11066,23 @@
       <c r="P6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="D7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="E7" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="F7" s="80" t="s">
         <v>70</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>71</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
@@ -11091,7 +11091,7 @@
       <c r="K7" s="48"/>
       <c r="L7" s="49"/>
       <c r="M7" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
@@ -11101,9 +11101,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="77"/>
       <c r="E8" s="46"/>
       <c r="F8" s="80"/>
@@ -11120,9 +11120,9 @@
       <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="82"/>
@@ -11158,20 +11158,20 @@
       <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="165" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="77" t="s">
+      <c r="E11" s="77" t="s">
         <v>74</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>75</v>
       </c>
       <c r="F11" s="80" t="s">
         <v>37</v>
@@ -11183,16 +11183,16 @@
         <v>41</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="49"/>
       <c r="M11" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="50" t="s">
         <v>77</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>78</v>
       </c>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
@@ -11201,9 +11201,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="166"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
       <c r="F12" s="80"/>
@@ -11220,9 +11220,9 @@
       <c r="Q12" s="83"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="167"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="82"/>
@@ -11258,20 +11258,20 @@
       <c r="Q14" s="86"/>
     </row>
     <row r="15" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="136" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="165" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="77" t="s">
+      <c r="E15" s="77" t="s">
         <v>80</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>81</v>
       </c>
       <c r="F15" s="80"/>
       <c r="G15" s="48"/>
@@ -11281,7 +11281,7 @@
       <c r="K15" s="48"/>
       <c r="L15" s="49"/>
       <c r="M15" s="90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N15" s="91"/>
       <c r="O15" s="91"/>
@@ -11291,14 +11291,14 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="110"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="166"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="77" t="s">
         <v>83</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>84</v>
       </c>
       <c r="F16" s="80"/>
       <c r="G16" s="48"/>
@@ -11312,21 +11312,21 @@
       <c r="O16" s="50"/>
       <c r="P16" s="50"/>
       <c r="Q16" s="81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="77" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="77" t="s">
+      <c r="E17" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="F17" s="80" t="s">
         <v>87</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>88</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
@@ -11339,21 +11339,21 @@
       <c r="O17" s="51"/>
       <c r="P17" s="51"/>
       <c r="Q17" s="83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="111"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="166"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="77" t="s">
-        <v>90</v>
-      </c>
       <c r="F18" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="48"/>
@@ -11366,21 +11366,21 @@
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
       <c r="Q18" s="83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="167"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="77" t="s">
+      <c r="F19" s="82" t="s">
         <v>92</v>
-      </c>
-      <c r="F19" s="82" t="s">
-        <v>93</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
@@ -11416,23 +11416,23 @@
       <c r="Q20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="46" t="s">
+      <c r="E21" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="F21" s="80" t="s">
         <v>96</v>
-      </c>
-      <c r="F21" s="80" t="s">
-        <v>97</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -11441,19 +11441,19 @@
       <c r="K21" s="48"/>
       <c r="L21" s="49"/>
       <c r="M21" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
       <c r="Q21" s="81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
       <c r="F22" s="80"/>
@@ -11470,9 +11470,9 @@
       <c r="Q22" s="83"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="82"/>
@@ -11508,23 +11508,23 @@
       <c r="Q24" s="86"/>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="46" t="s">
+      <c r="E25" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="F25" s="80" t="s">
         <v>101</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>102</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -11533,27 +11533,27 @@
       <c r="K25" s="48"/>
       <c r="L25" s="49"/>
       <c r="M25" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
       <c r="P25" s="50"/>
       <c r="Q25" s="81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="92" t="s">
+      <c r="F26" s="80" t="s">
         <v>105</v>
-      </c>
-      <c r="F26" s="80" t="s">
-        <v>106</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
@@ -11562,27 +11562,27 @@
       <c r="K26" s="48"/>
       <c r="L26" s="49"/>
       <c r="M26" s="93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N26" s="94"/>
       <c r="O26" s="94"/>
       <c r="P26" s="94"/>
       <c r="Q26" s="95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="113"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="F27" s="82" t="s">
         <v>109</v>
-      </c>
-      <c r="F27" s="82" t="s">
-        <v>110</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
@@ -11591,7 +11591,7 @@
       <c r="K27" s="48"/>
       <c r="L27" s="49"/>
       <c r="M27" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N27" s="51"/>
       <c r="O27" s="51"/>
@@ -11617,20 +11617,20 @@
       <c r="P28" s="75"/>
     </row>
     <row r="29" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="77" t="s">
-        <v>141</v>
-      </c>
       <c r="E29" s="77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
@@ -11645,14 +11645,14 @@
       <c r="P29" s="73"/>
     </row>
     <row r="30" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="111"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
@@ -11667,14 +11667,14 @@
       <c r="P30" s="73"/>
     </row>
     <row r="31" spans="1:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
@@ -11707,20 +11707,20 @@
       <c r="P32" s="75"/>
     </row>
     <row r="33" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="112" t="s">
-        <v>142</v>
+      <c r="B33" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="105" t="s">
+        <v>141</v>
       </c>
       <c r="D33" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="77" t="s">
         <v>115</v>
-      </c>
-      <c r="E33" s="77" t="s">
-        <v>116</v>
       </c>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
@@ -11735,9 +11735,9 @@
       <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="111"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="77"/>
       <c r="E34" s="58"/>
       <c r="F34" s="71"/>
@@ -11753,9 +11753,9 @@
       <c r="P34" s="73"/>
     </row>
     <row r="35" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="77"/>
       <c r="E35" s="46"/>
       <c r="F35" s="71"/>
@@ -11789,20 +11789,20 @@
       <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="131" t="s">
+      <c r="B37" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="77" t="s">
+      <c r="E37" s="77" t="s">
         <v>119</v>
-      </c>
-      <c r="E37" s="77" t="s">
-        <v>120</v>
       </c>
       <c r="F37" s="71"/>
       <c r="G37" s="71"/>
@@ -11817,9 +11817,9 @@
       <c r="P37" s="73"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="77"/>
       <c r="E38" s="77"/>
       <c r="F38" s="71"/>
@@ -11835,9 +11835,9 @@
       <c r="P38" s="73"/>
     </row>
     <row r="39" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
       <c r="D39" s="77"/>
       <c r="E39" s="46"/>
       <c r="F39" s="71"/>
@@ -11871,20 +11871,20 @@
       <c r="P40" s="75"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="98" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="135" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="165" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="C41" s="136" t="s">
+        <v>141</v>
       </c>
       <c r="D41" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="58" t="s">
         <v>122</v>
-      </c>
-      <c r="E41" s="58" t="s">
-        <v>123</v>
       </c>
       <c r="F41" s="71"/>
       <c r="G41" s="71"/>
@@ -11899,14 +11899,14 @@
       <c r="P41" s="73"/>
     </row>
     <row r="42" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="166"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="58" t="s">
         <v>124</v>
-      </c>
-      <c r="E42" s="58" t="s">
-        <v>125</v>
       </c>
       <c r="F42" s="71"/>
       <c r="G42" s="71"/>
@@ -11921,9 +11921,9 @@
       <c r="P42" s="73"/>
     </row>
     <row r="43" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="167"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="138"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="71"/>
@@ -11946,42 +11946,42 @@
       <c r="E44" s="54"/>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="110" t="s">
-        <v>117</v>
+      <c r="A45" s="98" t="s">
+        <v>116</v>
       </c>
       <c r="B45" s="135" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="112" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>141</v>
       </c>
       <c r="D45" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="58" t="s">
+    </row>
+    <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="99"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="58" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="58" t="s">
+      <c r="E46" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="58" t="s">
+    </row>
+    <row r="47" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="99"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="58" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="58" t="s">
+      <c r="E47" s="58" t="s">
         <v>130</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11992,39 +11992,39 @@
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="110" t="s">
-        <v>121</v>
+      <c r="A49" s="98" t="s">
+        <v>120</v>
       </c>
       <c r="B49" s="135" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="112" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="C49" s="105" t="s">
+        <v>141</v>
       </c>
       <c r="D49" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="58" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="99"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="58" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="58" t="s">
+      <c r="E50" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="58" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="99"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="46" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="111"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="46" t="s">
-        <v>136</v>
       </c>
       <c r="E51" s="46"/>
     </row>
@@ -12036,67 +12036,47 @@
       <c r="E52" s="54"/>
     </row>
     <row r="53" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="135" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="135" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="77" t="s">
+      <c r="E53" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="77" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="111"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="113"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="111"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -12113,15 +12093,35 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 M6:P6">
     <cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal">

--- a/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -334,9 +334,6 @@
     <t>marcar feminino, desmarcar e depois marcar masculino</t>
   </si>
   <si>
-    <t>a opção gestante deverar sumir do form após desmarcar feminnino</t>
-  </si>
-  <si>
     <t>desmarcar feminino e marcar masculino</t>
   </si>
   <si>
@@ -473,6 +470,9 @@
   </si>
   <si>
     <t>Exibição da tela no sistema</t>
+  </si>
+  <si>
+    <t>a opção gestante deverar sumir do formato após desmarcar feminino</t>
   </si>
 </sst>
 </file>
@@ -1217,6 +1217,36 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1235,6 +1265,51 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1253,84 +1328,42 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -1352,12 +1385,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -1399,399 +1426,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="257">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="217">
     <dxf>
       <font>
         <b/>
@@ -4572,7 +4212,7 @@
   <sheetPr codeName="Plan3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
@@ -4605,29 +4245,29 @@
       <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="116" t="s">
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="128" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="130"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="128"/>
       <c r="Q1" s="36"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -4859,23 +4499,23 @@
       <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -5104,26 +4744,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -5352,22 +4992,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -6094,13 +5734,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="105" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -6130,7 +5770,7 @@
       <c r="L7" s="49"/>
       <c r="M7" s="50"/>
       <c r="N7" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
@@ -6362,9 +6002,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="77" t="s">
         <v>45</v>
       </c>
@@ -6630,9 +6270,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="48"/>
@@ -7118,14 +6758,14 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="112" t="s">
-        <v>147</v>
+      <c r="C11" s="105" t="s">
+        <v>146</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>54</v>
@@ -7372,9 +7012,9 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="58" t="s">
         <v>56</v>
       </c>
@@ -7620,9 +7260,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="46" t="s">
         <v>58</v>
       </c>
@@ -8112,13 +7752,13 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="104" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="77" t="s">
@@ -8366,9 +8006,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="77" t="s">
         <v>45</v>
       </c>
@@ -8614,9 +8254,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="48"/>
@@ -9102,11 +8742,11 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
@@ -9348,9 +8988,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
@@ -9592,9 +9232,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="48"/>
@@ -10080,11 +9720,11 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
@@ -10101,9 +9741,9 @@
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="47"/>
@@ -10120,9 +9760,9 @@
       <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="48"/>
@@ -10158,11 +9798,11 @@
       <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
@@ -10179,9 +9819,9 @@
       <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
@@ -10198,9 +9838,9 @@
       <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A29" s="111"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="48"/>
@@ -10218,11 +9858,11 @@
     </row>
     <row r="30" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
@@ -10239,9 +9879,9 @@
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A32" s="111"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
@@ -10258,9 +9898,9 @@
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="48"/>
@@ -10296,11 +9936,11 @@
       <c r="Q34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
@@ -10317,9 +9957,9 @@
       <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
@@ -10336,9 +9976,9 @@
       <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
       <c r="F37" s="48"/>
@@ -10355,11 +9995,11 @@
       <c r="Q37" s="36"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
@@ -10375,9 +10015,9 @@
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
       <c r="F40" s="47"/>
@@ -10393,9 +10033,9 @@
       <c r="P40" s="51"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
@@ -10429,11 +10069,11 @@
       <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="47"/>
@@ -10449,9 +10089,9 @@
       <c r="P43" s="50"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="111"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
       <c r="D44" s="46"/>
       <c r="E44" s="46"/>
       <c r="F44" s="47"/>
@@ -10467,9 +10107,9 @@
       <c r="P44" s="51"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="111"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
       <c r="F45" s="48"/>
@@ -10485,11 +10125,11 @@
       <c r="P45" s="50"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="46"/>
       <c r="E47" s="46"/>
       <c r="F47" s="47"/>
@@ -10505,9 +10145,9 @@
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
       <c r="F48" s="47"/>
@@ -10523,9 +10163,9 @@
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="111"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
       <c r="F49" s="48"/>
@@ -10559,11 +10199,11 @@
       <c r="P50" s="55"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="46"/>
       <c r="E51" s="46"/>
       <c r="F51" s="47"/>
@@ -10579,9 +10219,9 @@
       <c r="P51" s="50"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="111"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
       <c r="F52" s="47"/>
@@ -10597,9 +10237,9 @@
       <c r="P52" s="51"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="111"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
       <c r="F53" s="48"/>
@@ -10616,36 +10256,14 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -10662,21 +10280,43 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P6">
     <cfRule type="cellIs" priority="443" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="444" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10684,7 +10324,7 @@
     <cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="246" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10692,7 +10332,7 @@
     <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="248" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10700,7 +10340,7 @@
     <cfRule type="cellIs" priority="249" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="250" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10708,7 +10348,7 @@
     <cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="200" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10716,7 +10356,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10724,7 +10364,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10732,7 +10372,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10740,7 +10380,7 @@
     <cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="192" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10748,7 +10388,7 @@
     <cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="198" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10756,7 +10396,7 @@
     <cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="202" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10764,7 +10404,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10772,7 +10412,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10780,7 +10420,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10788,7 +10428,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10796,7 +10436,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10804,7 +10444,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10812,7 +10452,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10820,7 +10460,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10828,7 +10468,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10836,7 +10476,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10844,7 +10484,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10852,7 +10492,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10860,7 +10500,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10868,7 +10508,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10876,7 +10516,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10884,7 +10524,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10892,7 +10532,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10900,7 +10540,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10908,7 +10548,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10916,7 +10556,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10924,7 +10564,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10932,7 +10572,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10940,7 +10580,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10948,7 +10588,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10956,7 +10596,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10964,7 +10604,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10972,7 +10612,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10980,7 +10620,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10988,7 +10628,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10996,7 +10636,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11004,7 +10644,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11012,7 +10652,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11020,7 +10660,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11028,7 +10668,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11036,7 +10676,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11044,7 +10684,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11052,7 +10692,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11060,7 +10700,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11068,7 +10708,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11076,7 +10716,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11084,7 +10724,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11092,7 +10732,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11100,7 +10740,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11108,7 +10748,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11116,7 +10756,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11124,7 +10764,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11132,7 +10772,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11140,7 +10780,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11148,7 +10788,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11156,7 +10796,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11164,7 +10804,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11172,7 +10812,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11180,7 +10820,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11188,7 +10828,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11196,7 +10836,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11204,7 +10844,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11212,7 +10852,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11220,7 +10860,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11228,7 +10868,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11236,7 +10876,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11244,7 +10884,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11252,7 +10892,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11260,7 +10900,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11268,7 +10908,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11276,7 +10916,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11284,7 +10924,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11292,7 +10932,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11300,7 +10940,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11308,7 +10948,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11316,7 +10956,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11324,7 +10964,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11332,7 +10972,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11340,7 +10980,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11348,7 +10988,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11356,7 +10996,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11364,7 +11004,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11372,7 +11012,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11380,7 +11020,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11388,7 +11028,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11396,7 +11036,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11404,7 +11044,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11412,7 +11052,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11420,7 +11060,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11428,7 +11068,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11436,7 +11076,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11444,7 +11084,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11452,7 +11092,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11460,7 +11100,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11468,7 +11108,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11476,7 +11116,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11484,7 +11124,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11492,7 +11132,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11500,7 +11140,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11508,7 +11148,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11516,7 +11156,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11537,8 +11177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11554,91 +11194,91 @@
       <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="150" t="s">
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="152"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="161"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="160"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
@@ -11687,13 +11327,13 @@
       <c r="P6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="105" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -11722,9 +11362,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="77"/>
       <c r="E8" s="46"/>
       <c r="F8" s="80"/>
@@ -11741,9 +11381,9 @@
       <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="82"/>
@@ -11779,13 +11419,13 @@
       <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="136" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="77" t="s">
@@ -11822,9 +11462,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="166"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
       <c r="F12" s="80"/>
@@ -11841,9 +11481,9 @@
       <c r="Q12" s="83"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="167"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="82"/>
@@ -11879,13 +11519,13 @@
       <c r="Q14" s="86"/>
     </row>
     <row r="15" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="165" t="s">
+      <c r="C15" s="136" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="77" t="s">
@@ -11912,9 +11552,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="110"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="166"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="77" t="s">
         <v>81</v>
       </c>
@@ -11937,9 +11577,9 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="166"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="77" t="s">
         <v>83</v>
       </c>
@@ -11964,9 +11604,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="111"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="166"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="77" t="s">
         <v>86</v>
       </c>
@@ -11991,9 +11631,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="167"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="77" t="s">
         <v>88</v>
       </c>
@@ -12037,13 +11677,13 @@
       <c r="Q20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="100" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="46" t="s">
@@ -12072,9 +11712,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
       <c r="F22" s="80"/>
@@ -12091,9 +11731,9 @@
       <c r="Q22" s="83"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="82"/>
@@ -12129,13 +11769,13 @@
       <c r="Q24" s="86"/>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="100" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="46" t="s">
@@ -12164,17 +11804,17 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="46" t="s">
         <v>101</v>
       </c>
       <c r="E26" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="80" t="s">
         <v>102</v>
-      </c>
-      <c r="F26" s="80" t="s">
-        <v>103</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
@@ -12183,7 +11823,7 @@
       <c r="K26" s="48"/>
       <c r="L26" s="49"/>
       <c r="M26" s="93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N26" s="94"/>
       <c r="O26" s="94"/>
@@ -12193,17 +11833,17 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="113"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="F27" s="82" t="s">
         <v>106</v>
-      </c>
-      <c r="F27" s="82" t="s">
-        <v>107</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
@@ -12212,7 +11852,7 @@
       <c r="K27" s="48"/>
       <c r="L27" s="49"/>
       <c r="M27" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N27" s="51"/>
       <c r="O27" s="51"/>
@@ -12238,20 +11878,20 @@
       <c r="P28" s="75"/>
     </row>
     <row r="29" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="112" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="77" t="s">
-        <v>138</v>
-      </c>
       <c r="E29" s="77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
@@ -12266,14 +11906,14 @@
       <c r="P29" s="73"/>
     </row>
     <row r="30" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="111"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
@@ -12288,14 +11928,14 @@
       <c r="P30" s="73"/>
     </row>
     <row r="31" spans="1:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
@@ -12328,20 +11968,20 @@
       <c r="P32" s="75"/>
     </row>
     <row r="33" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="112" t="s">
-        <v>139</v>
+      <c r="B33" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="105" t="s">
+        <v>138</v>
       </c>
       <c r="D33" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="77" t="s">
         <v>112</v>
-      </c>
-      <c r="E33" s="77" t="s">
-        <v>113</v>
       </c>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
@@ -12356,9 +11996,9 @@
       <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="111"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="77"/>
       <c r="E34" s="58"/>
       <c r="F34" s="71"/>
@@ -12374,9 +12014,9 @@
       <c r="P34" s="73"/>
     </row>
     <row r="35" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="77"/>
       <c r="E35" s="46"/>
       <c r="F35" s="71"/>
@@ -12410,20 +12050,20 @@
       <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="131" t="s">
+      <c r="B37" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="112" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="77" t="s">
+      <c r="E37" s="77" t="s">
         <v>116</v>
-      </c>
-      <c r="E37" s="77" t="s">
-        <v>117</v>
       </c>
       <c r="F37" s="71"/>
       <c r="G37" s="71"/>
@@ -12438,9 +12078,9 @@
       <c r="P37" s="73"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="77"/>
       <c r="E38" s="77"/>
       <c r="F38" s="71"/>
@@ -12456,9 +12096,9 @@
       <c r="P38" s="73"/>
     </row>
     <row r="39" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
       <c r="D39" s="77"/>
       <c r="E39" s="46"/>
       <c r="F39" s="71"/>
@@ -12492,20 +12132,20 @@
       <c r="P40" s="75"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="98" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="135" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="165" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="C41" s="136" t="s">
+        <v>138</v>
       </c>
       <c r="D41" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="58" t="s">
         <v>119</v>
-      </c>
-      <c r="E41" s="58" t="s">
-        <v>120</v>
       </c>
       <c r="F41" s="71"/>
       <c r="G41" s="71"/>
@@ -12520,14 +12160,14 @@
       <c r="P41" s="73"/>
     </row>
     <row r="42" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="166"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="58" t="s">
         <v>121</v>
-      </c>
-      <c r="E42" s="58" t="s">
-        <v>122</v>
       </c>
       <c r="F42" s="71"/>
       <c r="G42" s="71"/>
@@ -12542,9 +12182,9 @@
       <c r="P42" s="73"/>
     </row>
     <row r="43" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="167"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="138"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="71"/>
@@ -12567,20 +12207,20 @@
       <c r="E44" s="54"/>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="110" t="s">
-        <v>114</v>
+      <c r="A45" s="98" t="s">
+        <v>113</v>
       </c>
       <c r="B45" s="135" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="112" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>138</v>
       </c>
       <c r="D45" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="58" t="s">
         <v>123</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>124</v>
       </c>
       <c r="F45" s="71"/>
       <c r="G45" s="71"/>
@@ -12595,14 +12235,14 @@
       <c r="P45" s="73"/>
     </row>
     <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="113"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="58" t="s">
         <v>125</v>
-      </c>
-      <c r="E46" s="58" t="s">
-        <v>126</v>
       </c>
       <c r="F46" s="71"/>
       <c r="G46" s="71"/>
@@ -12617,14 +12257,14 @@
       <c r="P46" s="73"/>
     </row>
     <row r="47" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="58" t="s">
         <v>127</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>128</v>
       </c>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -12646,20 +12286,20 @@
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="110" t="s">
-        <v>118</v>
+      <c r="A49" s="98" t="s">
+        <v>117</v>
       </c>
       <c r="B49" s="135" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="112" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="C49" s="105" t="s">
+        <v>138</v>
       </c>
       <c r="D49" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="58" t="s">
         <v>129</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>130</v>
       </c>
       <c r="F49" s="71"/>
       <c r="G49" s="71"/>
@@ -12674,14 +12314,14 @@
       <c r="P49" s="73"/>
     </row>
     <row r="50" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="113"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="100"/>
       <c r="D50" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="58" t="s">
         <v>131</v>
-      </c>
-      <c r="E50" s="58" t="s">
-        <v>132</v>
       </c>
       <c r="F50" s="71"/>
       <c r="G50" s="71"/>
@@ -12696,11 +12336,11 @@
       <c r="P50" s="73"/>
     </row>
     <row r="51" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="111"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="113"/>
+      <c r="A51" s="99"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="71"/>
@@ -12723,20 +12363,20 @@
       <c r="E52" s="54"/>
     </row>
     <row r="53" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="135" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="135" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="112" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="77" t="s">
+      <c r="E53" s="77" t="s">
         <v>135</v>
-      </c>
-      <c r="E53" s="77" t="s">
-        <v>136</v>
       </c>
       <c r="F53" s="71"/>
       <c r="G53" s="71"/>
@@ -12751,9 +12391,9 @@
       <c r="P53" s="73"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="111"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="113"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
       <c r="F54" s="71"/>
@@ -12769,9 +12409,9 @@
       <c r="P54" s="73"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="111"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
       <c r="F55" s="71"/>
@@ -12788,35 +12428,15 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -12833,21 +12453,41 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 M6:P6">
     <cfRule type="cellIs" priority="347" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="348" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="348" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12855,7 +12495,7 @@
     <cfRule type="cellIs" priority="243" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="244" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12863,7 +12503,7 @@
     <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="242" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12871,7 +12511,7 @@
     <cfRule type="cellIs" priority="239" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="240" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12879,7 +12519,7 @@
     <cfRule type="cellIs" priority="231" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="232" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12887,7 +12527,7 @@
     <cfRule type="cellIs" priority="229" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="230" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12895,7 +12535,7 @@
     <cfRule type="cellIs" priority="225" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="226" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12903,7 +12543,7 @@
     <cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="224" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12911,7 +12551,7 @@
     <cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="222" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12919,7 +12559,7 @@
     <cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="220" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12927,7 +12567,7 @@
     <cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="218" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12935,7 +12575,7 @@
     <cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="208" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12943,7 +12583,7 @@
     <cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="206" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12951,7 +12591,7 @@
     <cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="204" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12959,7 +12599,7 @@
     <cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="196" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12967,7 +12607,7 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="194" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12975,7 +12615,7 @@
     <cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="190" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12983,7 +12623,7 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="188" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12991,7 +12631,7 @@
     <cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="186" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12999,7 +12639,7 @@
     <cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="184" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13007,7 +12647,7 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="182" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13015,7 +12655,7 @@
     <cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="180" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13023,7 +12663,7 @@
     <cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="178" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13031,7 +12671,7 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="176" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13039,7 +12679,7 @@
     <cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="174" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13047,7 +12687,7 @@
     <cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="172" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13055,7 +12695,7 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="170" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13063,7 +12703,7 @@
     <cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="168" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13071,7 +12711,7 @@
     <cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="166" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13079,7 +12719,7 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="164" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13087,7 +12727,7 @@
     <cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="162" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13095,7 +12735,7 @@
     <cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="160" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13103,7 +12743,7 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="158" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13111,7 +12751,7 @@
     <cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="156" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13119,7 +12759,7 @@
     <cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="154" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13127,7 +12767,7 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="152" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13135,7 +12775,7 @@
     <cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="150" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13143,7 +12783,7 @@
     <cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="148" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13151,7 +12791,7 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="146" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13159,7 +12799,7 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="62" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13167,7 +12807,7 @@
     <cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="144" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13175,7 +12815,7 @@
     <cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="140" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13183,7 +12823,7 @@
     <cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="142" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13191,7 +12831,7 @@
     <cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="136" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13199,7 +12839,7 @@
     <cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="138" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13207,7 +12847,7 @@
     <cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="132" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13215,7 +12855,7 @@
     <cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="130" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13223,7 +12863,7 @@
     <cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="134" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13231,7 +12871,7 @@
     <cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="128" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13239,7 +12879,7 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="122" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13247,7 +12887,7 @@
     <cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="124" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13255,7 +12895,7 @@
     <cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="126" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13263,7 +12903,7 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="116" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13271,7 +12911,7 @@
     <cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="110" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13279,7 +12919,7 @@
     <cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="114" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13287,7 +12927,7 @@
     <cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="106" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13295,7 +12935,7 @@
     <cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="118" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13303,7 +12943,7 @@
     <cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="120" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13311,7 +12951,7 @@
     <cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="102" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13319,7 +12959,7 @@
     <cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="108" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13327,7 +12967,7 @@
     <cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="100" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13335,7 +12975,7 @@
     <cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="112" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13343,7 +12983,7 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="92" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13351,7 +12991,7 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="98" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13359,7 +12999,7 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="104" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13367,7 +13007,7 @@
     <cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="96" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13375,7 +13015,7 @@
     <cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="88" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13383,7 +13023,7 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="86" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13391,7 +13031,7 @@
     <cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="90" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13399,7 +13039,7 @@
     <cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="94" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13407,7 +13047,7 @@
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="84" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13415,7 +13055,7 @@
     <cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="82" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13423,7 +13063,7 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="80" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13431,7 +13071,7 @@
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="78" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13439,7 +13079,7 @@
     <cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="76" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13447,7 +13087,7 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="74" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13455,7 +13095,7 @@
     <cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="72" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13463,7 +13103,7 @@
     <cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="70" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13471,7 +13111,7 @@
     <cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="64" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13479,7 +13119,7 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="68" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13487,7 +13127,7 @@
     <cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="66" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13495,7 +13135,7 @@
     <cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="60" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13503,7 +13143,7 @@
     <cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="58" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13511,7 +13151,7 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="56" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13519,7 +13159,7 @@
     <cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="54" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13527,7 +13167,7 @@
     <cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="52" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13535,7 +13175,7 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="50" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13543,7 +13183,7 @@
     <cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="48" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13551,7 +13191,7 @@
     <cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="46" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13559,7 +13199,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="44" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13567,7 +13207,7 @@
     <cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="42" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13575,7 +13215,7 @@
     <cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="40" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13583,7 +13223,7 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13591,7 +13231,7 @@
     <cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="36" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13599,7 +13239,7 @@
     <cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="34" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13607,7 +13247,7 @@
     <cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="32" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13615,7 +13255,7 @@
     <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13623,7 +13263,7 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="28" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13631,7 +13271,7 @@
     <cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13639,7 +13279,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13647,7 +13287,7 @@
     <cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13655,7 +13295,7 @@
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13663,7 +13303,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13671,7 +13311,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13679,7 +13319,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13687,7 +13327,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13695,7 +13335,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13703,7 +13343,7 @@
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13711,7 +13351,7 @@
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13719,7 +13359,7 @@
     <cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13727,7 +13367,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -1220,6 +1220,36 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1238,6 +1268,51 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,84 +1331,42 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -1355,12 +1388,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -1402,33 +1429,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3945,7 +3945,7 @@
   <sheetPr codeName="Plan3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
@@ -3978,29 +3978,29 @@
       <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="116" t="s">
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="128" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="130"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="128"/>
       <c r="Q1" s="36"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -4232,23 +4232,23 @@
       <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -4477,26 +4477,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -4725,22 +4725,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -5467,13 +5467,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="105" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -5741,9 +5741,9 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="77" t="s">
         <v>46</v>
       </c>
@@ -6009,9 +6009,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="48"/>
@@ -6497,13 +6497,13 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="105" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="58" t="s">
@@ -6751,9 +6751,9 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="58" t="s">
         <v>58</v>
       </c>
@@ -6999,9 +6999,9 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="46" t="s">
         <v>60</v>
       </c>
@@ -7491,13 +7491,13 @@
       <c r="IH14"/>
     </row>
     <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="104" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="77" t="s">
@@ -7745,9 +7745,9 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="77" t="s">
         <v>46</v>
       </c>
@@ -7993,9 +7993,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="48"/>
@@ -8481,11 +8481,11 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
@@ -8727,9 +8727,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
@@ -8971,9 +8971,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="48"/>
@@ -9459,11 +9459,11 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
@@ -9480,9 +9480,9 @@
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="47"/>
@@ -9499,9 +9499,9 @@
       <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="48"/>
@@ -9537,11 +9537,11 @@
       <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
@@ -9558,9 +9558,9 @@
       <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A28" s="111"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
@@ -9577,9 +9577,9 @@
       <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A29" s="111"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="48"/>
@@ -9597,11 +9597,11 @@
     </row>
     <row r="30" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
@@ -9618,9 +9618,9 @@
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A32" s="111"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
@@ -9637,9 +9637,9 @@
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="48"/>
@@ -9675,11 +9675,11 @@
       <c r="Q34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
@@ -9696,9 +9696,9 @@
       <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
@@ -9715,9 +9715,9 @@
       <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
       <c r="F37" s="48"/>
@@ -9734,11 +9734,11 @@
       <c r="Q37" s="36"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
@@ -9754,9 +9754,9 @@
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
       <c r="F40" s="47"/>
@@ -9772,9 +9772,9 @@
       <c r="P40" s="51"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
@@ -9808,11 +9808,11 @@
       <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="47"/>
@@ -9828,9 +9828,9 @@
       <c r="P43" s="50"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="111"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
       <c r="D44" s="46"/>
       <c r="E44" s="46"/>
       <c r="F44" s="47"/>
@@ -9846,9 +9846,9 @@
       <c r="P44" s="51"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="111"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
       <c r="F45" s="48"/>
@@ -9864,11 +9864,11 @@
       <c r="P45" s="50"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="46"/>
       <c r="E47" s="46"/>
       <c r="F47" s="47"/>
@@ -9884,9 +9884,9 @@
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="111"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
       <c r="F48" s="47"/>
@@ -9902,9 +9902,9 @@
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="111"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
       <c r="F49" s="48"/>
@@ -9938,11 +9938,11 @@
       <c r="P50" s="55"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="46"/>
       <c r="E51" s="46"/>
       <c r="F51" s="47"/>
@@ -9958,9 +9958,9 @@
       <c r="P51" s="50"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="111"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
       <c r="F52" s="47"/>
@@ -9976,9 +9976,9 @@
       <c r="P52" s="51"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="111"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
       <c r="F53" s="48"/>
@@ -9995,36 +9995,14 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -10041,14 +10019,36 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P6">
@@ -10916,8 +10916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10933,91 +10933,91 @@
       <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="150" t="s">
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="152"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="161"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="157"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="160"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
@@ -11066,13 +11066,13 @@
       <c r="P6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="105" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -11101,9 +11101,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="77"/>
       <c r="E8" s="46"/>
       <c r="F8" s="80"/>
@@ -11120,9 +11120,9 @@
       <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="82"/>
@@ -11158,13 +11158,13 @@
       <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="136" t="s">
         <v>68</v>
       </c>
       <c r="D11" s="77" t="s">
@@ -11201,9 +11201,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="166"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
       <c r="F12" s="80"/>
@@ -11220,9 +11220,9 @@
       <c r="Q12" s="83"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="167"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="82"/>
@@ -11258,13 +11258,13 @@
       <c r="Q14" s="86"/>
     </row>
     <row r="15" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="165" t="s">
+      <c r="C15" s="136" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="77" t="s">
@@ -11291,9 +11291,9 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="110"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="166"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="77" t="s">
         <v>83</v>
       </c>
@@ -11316,9 +11316,9 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="166"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="77" t="s">
         <v>86</v>
       </c>
@@ -11343,9 +11343,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="111"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="166"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="77" t="s">
         <v>89</v>
       </c>
@@ -11370,9 +11370,9 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="167"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="77" t="s">
         <v>91</v>
       </c>
@@ -11416,13 +11416,13 @@
       <c r="Q20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="131" t="s">
+      <c r="B21" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="100" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="46" t="s">
@@ -11451,9 +11451,9 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
       <c r="F22" s="80"/>
@@ -11470,9 +11470,9 @@
       <c r="Q22" s="83"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="82"/>
@@ -11508,13 +11508,13 @@
       <c r="Q24" s="86"/>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="100" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="46" t="s">
@@ -11543,9 +11543,9 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="111"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="46" t="s">
         <v>104</v>
       </c>
@@ -11572,9 +11572,9 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="113"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="77" t="s">
         <v>108</v>
       </c>
@@ -11617,13 +11617,13 @@
       <c r="P28" s="75"/>
     </row>
     <row r="29" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="105" t="s">
         <v>142</v>
       </c>
       <c r="D29" s="77" t="s">
@@ -11645,9 +11645,9 @@
       <c r="P29" s="73"/>
     </row>
     <row r="30" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="111"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="58" t="s">
         <v>113</v>
       </c>
@@ -11667,9 +11667,9 @@
       <c r="P30" s="73"/>
     </row>
     <row r="31" spans="1:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="58" t="s">
         <v>114</v>
       </c>
@@ -11707,13 +11707,13 @@
       <c r="P32" s="75"/>
     </row>
     <row r="33" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="131" t="s">
+      <c r="B33" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="105" t="s">
         <v>142</v>
       </c>
       <c r="D33" s="77" t="s">
@@ -11735,9 +11735,9 @@
       <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="111"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="77"/>
       <c r="E34" s="58"/>
       <c r="F34" s="71"/>
@@ -11753,9 +11753,9 @@
       <c r="P34" s="73"/>
     </row>
     <row r="35" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="77"/>
       <c r="E35" s="46"/>
       <c r="F35" s="71"/>
@@ -11789,13 +11789,13 @@
       <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="131" t="s">
+      <c r="B37" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="112" t="s">
+      <c r="C37" s="105" t="s">
         <v>142</v>
       </c>
       <c r="D37" s="77" t="s">
@@ -11817,9 +11817,9 @@
       <c r="P37" s="73"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="77"/>
       <c r="E38" s="77"/>
       <c r="F38" s="71"/>
@@ -11835,9 +11835,9 @@
       <c r="P38" s="73"/>
     </row>
     <row r="39" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
       <c r="D39" s="77"/>
       <c r="E39" s="46"/>
       <c r="F39" s="71"/>
@@ -11871,13 +11871,13 @@
       <c r="P40" s="75"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="98" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="165" t="s">
+      <c r="C41" s="136" t="s">
         <v>142</v>
       </c>
       <c r="D41" s="58" t="s">
@@ -11899,9 +11899,9 @@
       <c r="P41" s="73"/>
     </row>
     <row r="42" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="111"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="166"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="58" t="s">
         <v>124</v>
       </c>
@@ -11921,9 +11921,9 @@
       <c r="P42" s="73"/>
     </row>
     <row r="43" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="167"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="138"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="71"/>
@@ -11946,13 +11946,13 @@
       <c r="E44" s="54"/>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="98" t="s">
         <v>117</v>
       </c>
       <c r="B45" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="112" t="s">
+      <c r="C45" s="105" t="s">
         <v>142</v>
       </c>
       <c r="D45" s="58" t="s">
@@ -11963,9 +11963,9 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="111"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="113"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="58" t="s">
         <v>128</v>
       </c>
@@ -11974,9 +11974,9 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="58" t="s">
         <v>130</v>
       </c>
@@ -11992,13 +11992,13 @@
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="110" t="s">
+      <c r="A49" s="98" t="s">
         <v>121</v>
       </c>
       <c r="B49" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="112" t="s">
+      <c r="C49" s="105" t="s">
         <v>142</v>
       </c>
       <c r="D49" s="58" t="s">
@@ -12009,9 +12009,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="113"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="101"/>
+      <c r="C50" s="100"/>
       <c r="D50" s="58" t="s">
         <v>134</v>
       </c>
@@ -12020,9 +12020,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="111"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="113"/>
+      <c r="A51" s="99"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="46" t="s">
         <v>136</v>
       </c>
@@ -12036,13 +12036,13 @@
       <c r="E52" s="54"/>
     </row>
     <row r="53" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="98" t="s">
         <v>137</v>
       </c>
       <c r="B53" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="112" t="s">
+      <c r="C53" s="105" t="s">
         <v>142</v>
       </c>
       <c r="D53" s="77" t="s">
@@ -12053,50 +12053,30 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="111"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="113"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="101"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="111"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -12113,15 +12093,35 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 M6:P6">
     <cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal">

--- a/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
+++ b/PROJETO DE TESTES/[Projeto AeroFree] Projeto de Testes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPasta_de_trabalho" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11760" tabRatio="601" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="161">
   <si>
     <t>CAMPO</t>
   </si>
@@ -193,21 +193,12 @@
     <t xml:space="preserve">O usuário clica na opção fazer check-in </t>
   </si>
   <si>
-    <t>O sistema vai retornar ao usuário para ele preencher o cpf ou o número da passagem</t>
-  </si>
-  <si>
     <t>O usuário preenche o cpf e clica em avançar</t>
   </si>
   <si>
-    <t>O sistema vai retornar ao usuário que ele preencheu o cpf com sucesso e o check-in será feito</t>
-  </si>
-  <si>
     <t>O usuário preenche o número da passagem</t>
   </si>
   <si>
-    <t>O sistema vai retornar ao usuário que ele preencheu o número da passagem com sucesso e o check-in será feito</t>
-  </si>
-  <si>
     <t>Contato</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
     <t>O sistema vai retornar ao usuário que ele preencha os dados informados</t>
   </si>
   <si>
-    <t>O sistema vai retornar ao usuário que ele enviou a mensagem de comprovante com sucesso</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Inicialização do sistema</t>
   </si>
   <si>
@@ -473,6 +461,54 @@
   </si>
   <si>
     <t>a opção gestante deverar sumir do formato após desmarcar feminino</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Assunto</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>Gabriela Silva</t>
+  </si>
+  <si>
+    <t>O sistema vai informar ao usuário para ele preencher o cpf ou o número da passagem</t>
+  </si>
+  <si>
+    <t>O sistema não retorna nada para o usuário e a interface fica aberta com o número do cpf informado</t>
+  </si>
+  <si>
+    <t>Check-in</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>Nº da passagem</t>
+  </si>
+  <si>
+    <t>120.235.125-36</t>
+  </si>
+  <si>
+    <t>12569831</t>
+  </si>
+  <si>
+    <t>O sistema não retorna nada para o usuário e a interface fica aberta com o número da passagem informada</t>
+  </si>
+  <si>
+    <t>O sistema não retorna nada para o usuário e a interface fica aberta com os dados que o usuário informou</t>
+  </si>
+  <si>
+    <t>gabi.silvam@gmail.com</t>
+  </si>
+  <si>
+    <t>meu check-in</t>
+  </si>
+  <si>
+    <t>quero um comprovante no check-in</t>
   </si>
 </sst>
 </file>
@@ -482,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\C\T000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -550,6 +586,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="12">
@@ -969,10 +1011,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1217,120 +1260,207 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1340,95 +1470,12 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="217">
@@ -4212,11 +4259,11 @@
   <sheetPr codeName="Plan3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:IH53"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4245,29 +4292,29 @@
       <c r="A1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="114" t="s">
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="126" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="128"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="130"/>
       <c r="Q1" s="36"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -4499,23 +4546,23 @@
       <c r="A2" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -4744,26 +4791,26 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -4992,22 +5039,22 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -5734,13 +5781,13 @@
       <c r="IH6" s="1"/>
     </row>
     <row r="7" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="112" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="58" t="s">
@@ -5770,7 +5817,7 @@
       <c r="L7" s="49"/>
       <c r="M7" s="50"/>
       <c r="N7" s="50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
@@ -6002,18 +6049,16 @@
       <c r="IH7" s="13"/>
     </row>
     <row r="8" spans="1:242" s="9" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="77" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>36</v>
-      </c>
+      <c r="F8" s="47"/>
       <c r="G8" s="48" t="s">
         <v>47</v>
       </c>
@@ -6039,9 +6084,7 @@
       <c r="O8" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="50" t="s">
-        <v>44</v>
-      </c>
+      <c r="P8" s="50"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -6270,9 +6313,9 @@
       <c r="IH8" s="13"/>
     </row>
     <row r="9" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="48"/>
@@ -6758,30 +6801,40 @@
       <c r="IH10"/>
     </row>
     <row r="11" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="105" t="s">
-        <v>146</v>
+      <c r="C11" s="112" t="s">
+        <v>142</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+        <v>149</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>153</v>
+      </c>
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="49"/>
       <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
+      <c r="N11" s="50" t="s">
+        <v>143</v>
+      </c>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
       <c r="Q11" s="36"/>
@@ -7012,18 +7065,20 @@
       <c r="IH11" s="13"/>
     </row>
     <row r="12" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="G12" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="168"/>
       <c r="I12" s="47"/>
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
@@ -7260,19 +7315,21 @@
       <c r="IH12" s="13"/>
     </row>
     <row r="13" spans="1:242" s="9" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="I13" s="48" t="s">
+        <v>155</v>
+      </c>
       <c r="J13" s="48"/>
       <c r="K13" s="48"/>
       <c r="L13" s="49"/>
@@ -7751,31 +7808,43 @@
       <c r="IG14"/>
       <c r="IH14"/>
     </row>
-    <row r="15" spans="1:242" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="98" t="s">
+    <row r="15" spans="1:242" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="131" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="F15" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>147</v>
+      </c>
       <c r="K15" s="48"/>
       <c r="L15" s="49"/>
       <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
+      <c r="N15" s="50" t="s">
+        <v>143</v>
+      </c>
       <c r="O15" s="50"/>
       <c r="P15" s="50"/>
       <c r="Q15" s="36"/>
@@ -8006,20 +8075,28 @@
       <c r="IH15" s="13"/>
     </row>
     <row r="16" spans="1:242" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="77" t="s">
-        <v>64</v>
+      <c r="E16" s="46" t="s">
+        <v>157</v>
       </c>
       <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="G16" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="168" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>160</v>
+      </c>
       <c r="K16" s="48"/>
       <c r="L16" s="49"/>
       <c r="M16" s="51"/>
@@ -8254,9 +8331,9 @@
       <c r="IH16" s="13"/>
     </row>
     <row r="17" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="48"/>
@@ -8742,11 +8819,11 @@
       <c r="IH18"/>
     </row>
     <row r="19" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="47"/>
@@ -8988,9 +9065,9 @@
       <c r="IH19" s="13"/>
     </row>
     <row r="20" spans="1:242" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="99"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
@@ -9232,9 +9309,9 @@
       <c r="IH20" s="13"/>
     </row>
     <row r="21" spans="1:242" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="48"/>
@@ -9720,11 +9797,11 @@
       <c r="IH22"/>
     </row>
     <row r="23" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="47"/>
@@ -9741,9 +9818,9 @@
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A24" s="99"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
       <c r="F24" s="47"/>
@@ -9760,9 +9837,9 @@
       <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="48"/>
@@ -9798,11 +9875,11 @@
       <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="47"/>
@@ -9819,9 +9896,9 @@
       <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A28" s="99"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
@@ -9838,9 +9915,9 @@
       <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A29" s="99"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="48"/>
@@ -9858,11 +9935,11 @@
     </row>
     <row r="30" spans="1:242" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="47"/>
@@ -9879,9 +9956,9 @@
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:242" x14ac:dyDescent="0.2">
-      <c r="A32" s="99"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
@@ -9898,9 +9975,9 @@
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="48"/>
@@ -9936,11 +10013,11 @@
       <c r="Q34" s="56"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
       <c r="F35" s="47"/>
@@ -9957,9 +10034,9 @@
       <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="99"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
       <c r="F36" s="47"/>
@@ -9976,9 +10053,9 @@
       <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
       <c r="F37" s="48"/>
@@ -9995,11 +10072,11 @@
       <c r="Q37" s="36"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
       <c r="F39" s="47"/>
@@ -10015,9 +10092,9 @@
       <c r="P39" s="50"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="99"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
       <c r="F40" s="47"/>
@@ -10033,9 +10110,9 @@
       <c r="P40" s="51"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="46"/>
       <c r="E41" s="46"/>
       <c r="F41" s="48"/>
@@ -10069,11 +10146,11 @@
       <c r="P42" s="55"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="47"/>
@@ -10089,9 +10166,9 @@
       <c r="P43" s="50"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="46"/>
       <c r="E44" s="46"/>
       <c r="F44" s="47"/>
@@ -10107,9 +10184,9 @@
       <c r="P44" s="51"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="99"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
       <c r="F45" s="48"/>
@@ -10125,11 +10202,11 @@
       <c r="P45" s="50"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="46"/>
       <c r="E47" s="46"/>
       <c r="F47" s="47"/>
@@ -10145,9 +10222,9 @@
       <c r="P47" s="50"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="99"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="46"/>
       <c r="E48" s="46"/>
       <c r="F48" s="47"/>
@@ -10163,9 +10240,9 @@
       <c r="P48" s="51"/>
     </row>
     <row r="49" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="99"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="46"/>
       <c r="E49" s="46"/>
       <c r="F49" s="48"/>
@@ -10199,11 +10276,11 @@
       <c r="P50" s="55"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="98" t="s">
+      <c r="A51" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="46"/>
       <c r="E51" s="46"/>
       <c r="F51" s="47"/>
@@ -10219,9 +10296,9 @@
       <c r="P51" s="50"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="99"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="100"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
       <c r="F52" s="47"/>
@@ -10237,9 +10314,9 @@
       <c r="P52" s="51"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="99"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="100"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
       <c r="F53" s="48"/>
@@ -10256,14 +10333,36 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -10280,36 +10379,14 @@
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="L1:L4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="G6:K6 M6:P6">
@@ -11160,6 +11237,9 @@
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.39370078740157483" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="8" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
@@ -11177,7 +11257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -11194,91 +11274,91 @@
       <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="154" t="s">
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="156" t="s">
+      <c r="F1" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="159" t="s">
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="161"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="152"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="140"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
+      <c r="A4" s="160"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="62"/>
@@ -11327,23 +11407,23 @@
       <c r="P6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="80" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>69</v>
       </c>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
@@ -11352,7 +11432,7 @@
       <c r="K7" s="48"/>
       <c r="L7" s="49"/>
       <c r="M7" s="50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
@@ -11362,9 +11442,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="77"/>
       <c r="E8" s="46"/>
       <c r="F8" s="80"/>
@@ -11381,9 +11461,9 @@
       <c r="Q8" s="81"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="82"/>
@@ -11419,20 +11499,20 @@
       <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="136" t="s">
-        <v>66</v>
+      <c r="B11" s="131" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="165" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F11" s="80" t="s">
         <v>37</v>
@@ -11444,16 +11524,16 @@
         <v>41</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="49"/>
       <c r="M11" s="50" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N11" s="50" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
@@ -11462,9 +11542,9 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="137"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="166"/>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
       <c r="F12" s="80"/>
@@ -11481,9 +11561,9 @@
       <c r="Q12" s="83"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="138"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="167"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="82"/>
@@ -11519,20 +11599,20 @@
       <c r="Q14" s="86"/>
     </row>
     <row r="15" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="136" t="s">
-        <v>66</v>
+      <c r="B15" s="131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="165" t="s">
+        <v>62</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F15" s="80"/>
       <c r="G15" s="48"/>
@@ -11542,7 +11622,7 @@
       <c r="K15" s="48"/>
       <c r="L15" s="49"/>
       <c r="M15" s="90" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N15" s="91"/>
       <c r="O15" s="91"/>
@@ -11552,14 +11632,14 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="137"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="166"/>
       <c r="D16" s="77" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="80"/>
       <c r="G16" s="48"/>
@@ -11573,21 +11653,21 @@
       <c r="O16" s="50"/>
       <c r="P16" s="50"/>
       <c r="Q16" s="81" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="137"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="166"/>
       <c r="D17" s="77" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
@@ -11600,21 +11680,21 @@
       <c r="O17" s="51"/>
       <c r="P17" s="51"/>
       <c r="Q17" s="83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="111"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="77" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="77" t="s">
-        <v>86</v>
-      </c>
       <c r="E18" s="77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="48"/>
@@ -11627,21 +11707,21 @@
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
       <c r="Q18" s="83" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="138"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="77" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G19" s="48"/>
       <c r="H19" s="48"/>
@@ -11677,23 +11757,23 @@
       <c r="Q20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>66</v>
+      <c r="B21" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="113" t="s">
+        <v>62</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -11702,19 +11782,19 @@
       <c r="K21" s="48"/>
       <c r="L21" s="49"/>
       <c r="M21" s="50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
       <c r="Q21" s="81" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
       <c r="F22" s="80"/>
@@ -11731,9 +11811,9 @@
       <c r="Q22" s="83"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
       <c r="F23" s="82"/>
@@ -11769,23 +11849,23 @@
       <c r="Q24" s="86"/>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>66</v>
+      <c r="B25" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="113" t="s">
+        <v>62</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E25" s="92" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F25" s="80" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
@@ -11794,27 +11874,27 @@
       <c r="K25" s="48"/>
       <c r="L25" s="49"/>
       <c r="M25" s="50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
       <c r="P25" s="50"/>
       <c r="Q25" s="81" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="99"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="100"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E26" s="92" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F26" s="80" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
@@ -11823,27 +11903,27 @@
       <c r="K26" s="48"/>
       <c r="L26" s="49"/>
       <c r="M26" s="93" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N26" s="94"/>
       <c r="O26" s="94"/>
       <c r="P26" s="94"/>
       <c r="Q26" s="95" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="100"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="77" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E27" s="77" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
@@ -11852,7 +11932,7 @@
       <c r="K27" s="48"/>
       <c r="L27" s="49"/>
       <c r="M27" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N27" s="51"/>
       <c r="O27" s="51"/>
@@ -11878,20 +11958,20 @@
       <c r="P28" s="75"/>
     </row>
     <row r="29" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="105" t="s">
-        <v>138</v>
+      <c r="B29" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>134</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E29" s="77" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F29" s="71"/>
       <c r="G29" s="71"/>
@@ -11906,14 +11986,14 @@
       <c r="P29" s="73"/>
     </row>
     <row r="30" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F30" s="71"/>
       <c r="G30" s="71"/>
@@ -11928,14 +12008,14 @@
       <c r="P30" s="73"/>
     </row>
     <row r="31" spans="1:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="58" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
@@ -11968,20 +12048,20 @@
       <c r="P32" s="75"/>
     </row>
     <row r="33" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="105" t="s">
-        <v>138</v>
+      <c r="B33" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="112" t="s">
+        <v>134</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E33" s="77" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
@@ -11996,9 +12076,9 @@
       <c r="P33" s="73"/>
     </row>
     <row r="34" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="99"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="77"/>
       <c r="E34" s="58"/>
       <c r="F34" s="71"/>
@@ -12014,9 +12094,9 @@
       <c r="P34" s="73"/>
     </row>
     <row r="35" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="77"/>
       <c r="E35" s="46"/>
       <c r="F35" s="71"/>
@@ -12050,20 +12130,20 @@
       <c r="P36" s="76"/>
     </row>
     <row r="37" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>138</v>
+      <c r="B37" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="112" t="s">
+        <v>134</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F37" s="71"/>
       <c r="G37" s="71"/>
@@ -12078,9 +12158,9 @@
       <c r="P37" s="73"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="99"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="77"/>
       <c r="E38" s="77"/>
       <c r="F38" s="71"/>
@@ -12096,9 +12176,9 @@
       <c r="P38" s="73"/>
     </row>
     <row r="39" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="77"/>
       <c r="E39" s="46"/>
       <c r="F39" s="71"/>
@@ -12132,20 +12212,20 @@
       <c r="P40" s="75"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="110" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="135" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="136" t="s">
         <v>138</v>
       </c>
+      <c r="C41" s="165" t="s">
+        <v>134</v>
+      </c>
       <c r="D41" s="58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F41" s="71"/>
       <c r="G41" s="71"/>
@@ -12160,14 +12240,14 @@
       <c r="P41" s="73"/>
     </row>
     <row r="42" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="137"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="166"/>
       <c r="D42" s="58" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F42" s="71"/>
       <c r="G42" s="71"/>
@@ -12182,9 +12262,9 @@
       <c r="P42" s="73"/>
     </row>
     <row r="43" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="138"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="167"/>
       <c r="D43" s="46"/>
       <c r="E43" s="46"/>
       <c r="F43" s="71"/>
@@ -12207,20 +12287,20 @@
       <c r="E44" s="54"/>
     </row>
     <row r="45" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="98" t="s">
-        <v>113</v>
+      <c r="A45" s="110" t="s">
+        <v>109</v>
       </c>
       <c r="B45" s="135" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="105" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="C45" s="112" t="s">
+        <v>134</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F45" s="71"/>
       <c r="G45" s="71"/>
@@ -12235,14 +12315,14 @@
       <c r="P45" s="73"/>
     </row>
     <row r="46" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="99"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="100"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="58" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F46" s="71"/>
       <c r="G46" s="71"/>
@@ -12257,14 +12337,14 @@
       <c r="P46" s="73"/>
     </row>
     <row r="47" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="99"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="58" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F47" s="71"/>
       <c r="G47" s="71"/>
@@ -12286,20 +12366,20 @@
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="98" t="s">
-        <v>117</v>
+      <c r="A49" s="110" t="s">
+        <v>113</v>
       </c>
       <c r="B49" s="135" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="105" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="C49" s="112" t="s">
+        <v>134</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F49" s="71"/>
       <c r="G49" s="71"/>
@@ -12314,14 +12394,14 @@
       <c r="P49" s="73"/>
     </row>
     <row r="50" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="99"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="100"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F50" s="71"/>
       <c r="G50" s="71"/>
@@ -12336,11 +12416,11 @@
       <c r="P50" s="73"/>
     </row>
     <row r="51" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="100"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="46" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="71"/>
@@ -12363,20 +12443,20 @@
       <c r="E52" s="54"/>
     </row>
     <row r="53" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="98" t="s">
-        <v>133</v>
+      <c r="A53" s="110" t="s">
+        <v>129</v>
       </c>
       <c r="B53" s="135" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="105" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="C53" s="112" t="s">
+        <v>134</v>
       </c>
       <c r="D53" s="77" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E53" s="77" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F53" s="71"/>
       <c r="G53" s="71"/>
@@ -12391,9 +12471,9 @@
       <c r="P53" s="73"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="99"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="100"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
       <c r="F54" s="71"/>
@@ -12409,9 +12489,9 @@
       <c r="P54" s="73"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="99"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
       <c r="F55" s="71"/>
@@ -12428,15 +12508,35 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
@@ -12453,35 +12553,15 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:K6 M6:P6">
     <cfRule type="cellIs" priority="347" stopIfTrue="1" operator="equal">
